--- a/artifacts/recipes/new_data/allrecipescom/mexican/mexican_authentic.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/mexican/mexican_authentic.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641155-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Authentic Mexican Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641164-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FUFbgCDbDExV61WHjI0eP4Q7ma4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(874x0:876x2):format(webp)/4565173-90682eef5041448f955c1e62c10ffabd.jpg"
@@ -203,59 +544,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260651/mexican-tres-leches-cake-pastel-de-3-leches/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mexican Tres Leches Cake (Pastel de 3 Leches)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n1 tablespoon all-purpose flour\n\n\n6  eggs, separated\n\n\n½ cup white sugar, divided\n\n\n1 cup self-rising flour\n\n\n1  lime, zested\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 cup heavy whipping cream\n\n\n1 teaspoon amaretto liqueur"},{"recipe_ingredients":"1 cup heavy whipping cream\n\n\n1 (4 ounce) container sliced peaches, drained\n\n\n1 teaspoon grated lime zest"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n1 tablespoon all-purpose flour\n\n\n6  eggs, separated\n\n\n½ cup white sugar, divided\n\n\n1 cup self-rising flour\n\n\n1  lime, zested\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 cup heavy whipping cream\n\n\n1 teaspoon amaretto liqueur'}, {'recipe_ingredients': '1 cup heavy whipping cream\n\n\n1 (4 ounce) container sliced peaches, drained\n\n\n1 teaspoon grated lime zest'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Butter and flour a 9-inch springform pan."},{"recipe_directions":"Beat egg whites in a glass, metal, or ceramic bowl until foamy. Gradually add 1/4 cup sugar, continuing to beat until stiff peaks form. Clean beaters."},{"recipe_directions":"Beat egg yolks in a separate bowl until creamy. Add remaining 1/4 cup sugar and continue beating until pale yellow. Fold egg yolks into egg white mixture using a spatula. Sift in flour and carefully fold into the batter; mix in zest of 1 lime. Pour batter into the prepared springform pan."},{"recipe_directions":"Bake in the preheated oven until edges pull away from the sides of the pan, about 30 minutes. Turn off oven but keep cake in the closed oven for an additional 20 minutes."},{"recipe_directions":"Prepare the '3 milks' while cake is resting in the oven. Combine condensed milk, evaporated milk, 1 cup heavy cream, and amaretto liqueur in a blender; blend until well combined."},{"recipe_directions":"Remove the cake from the springform pan and and place on a serving plate. Pierce the cake several times across the top with a fork. Pour the '3 milks' mixture over the cake. Refrigerate cake until cool and milk mixture has soaked in, about 1 hour."},{"recipe_directions":"Beat 1 cup heavy cream in a chilled glass or metal bowl with an electric mixer until soft peaks form. Garnish the top of the cake with whipped cream, peach slices, and 1 teaspoon lime zest."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"545\nCalories\n\n\n29g \nFat\n\n\n59g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641177-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NTqSpGjhUARlTRs9zQAF10GaIgg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3572286-67d1b49885e54fd2941459a6d88b7b7a.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230156/traditional-chilaquiles/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Traditional Chilaquiles</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  fresh tomatillos, husks removed\n\n\n1  white onion, coarsely chopped\n\n\n1  poblano pepper, peeled and seeded\n\n\n1  jalapeno pepper, seeded\n\n\n¾ cup chopped cilantro\n\n\n4 cloves garlic\n\n\n2 leaves fresh mint\n\n\n  salt to taste\n\n\n3 cups shredded cooked chicken\n\n\n¼ cup vegetable oil\n\n\n12 (6 inch) white corn tortillas, cut into 3 strips\n\n\n¾ cup shredded pepper Jack cheese\n\n\n¾ cup shredded Monterey Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  fresh tomatillos, husks removed\n\n\n1  white onion, coarsely chopped\n\n\n1  poblano pepper, peeled and seeded\n\n\n1  jalapeno pepper, seeded\n\n\n¾ cup chopped cilantro\n\n\n4 cloves garlic\n\n\n2 leaves fresh mint\n\n\n  salt to taste\n\n\n3 cups shredded cooked chicken\n\n\n¼ cup vegetable oil\n\n\n12 (6 inch) white corn tortillas, cut into 3 strips\n\n\n¾ cup shredded pepper Jack cheese\n\n\n¾ cup shredded Monterey Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Blend tomatillos, onion, poblano pepper, jalapeño pepper, cilantro, garlic, mint, and salt in a blender until smooth. Transfer mixture to a saucepan and bring to a gentle boil. Reduce heat to medium-low and simmer until thickened, stirring often, about 10 minutes. Add chicken to tomatillo sauce and continue to simmer until chicken is heated through, about 5 minutes more."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Fry tortilla strips in batches until crisp and lightly browned, 5 to 7 minutes. Drain on a paper towel-lined plate."},{"recipe_directions":"Layer about 1/2 of the fried tortillas in a 2-quart baking dish; spread 1/2 of the tomatillo sauce over tortillas. Mix pepper Jack cheese and Monterey Jack cheese in a bowl; sprinkle 1/2 of the cheese mix over tomatillo sauce. Repeat layers."},{"recipe_directions":"Bake in the preheated oven until cheese is golden and bubbly, 30 to 35 minutes. Allow to cool before serving, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"297\nCalories\n\n\n13g \nFat\n\n\n22g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641185-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JV8ICiB7C-zgan8op_QZsHidWfE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/5024576-bean-tamales-tameles-de-frijoles-Salvador-4x3-1-0ba75e92678c4d669bcb22c95767f8d1.jpg"
@@ -334,59 +667,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261686/bean-tamales-tameles-de-frijoles/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tamales de Frijoles (Bean Tamales)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n 3 hrs 15 mins\n\n\nTotal Time:\n 5 hrs 45 mins\n\n\nServings:\n24 \n\n\nYield:\n24 tamales"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"24  dried corn husks\n\n\n1 (16 ounce) can refried beans\n\n\n1 tablespoon vegetable oil\n\n\n1 cup lard, softened\n\n\n2 pounds masa harina flour\n\n\n1 (4 ounce) can canned jalapenos, sliced"},{"recipe_ingredients":"6  dried ancho chile peppers, seeded\n\n\n3 cloves garlic\n\n\n1 pinch ground cumin\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 tablespoon water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '24  dried corn husks\n\n\n1 (16 ounce) can refried beans\n\n\n1 tablespoon vegetable oil\n\n\n1 cup lard, softened\n\n\n2 pounds masa harina flour\n\n\n1 (4 ounce) can canned jalapenos, sliced'}, {'recipe_ingredients': '6  dried ancho chile peppers, seeded\n\n\n3 cloves garlic\n\n\n1 pinch ground cumin\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 tablespoon water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Start the tamales: Place corn husks into a bowl, cover with boiling water, and soak for about 3 hours. Drain, place on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"Make the salsa: Place ancho chiles into a saucepan, cover with water, and bring to a boil over medium heat; cook until soft, about 10 minutes. Drain."},{"recipe_directions":"Combine ancho chiles, garlic, cumin, salt, and pepper in a blender. Add water and blend until smooth. Strain through a sieve."},{"recipe_directions":"Finish the tamales: Heat oil in a large skillet over medium heat. Add 1/2 of the salsa and cook for 3 to 5 minutes. Stir in refried beans until well combined; cook until most of the liquid has evaporated, about 5 minutes. Remove from the heat."},{"recipe_directions":"Beat lard with an electric mixer in a large bowl until fluffy. Gradually add masa flour and beat until well combined. Add remaining salsa and continue beating until dough is uniformly red in color."},{"recipe_directions":"Select one wide corn husk. Starting 2 inches from the bottom of the husk, spread about 2 tablespoons masa mixture over the surface, ending about 1/4 inch from the top. Place 1 tablespoon beans and 1 jalapeño slice in the center of masa mixture. Fold the sides of the husk together, one over the other. Fold the bottom of the husk over the seam of the two folded sides. Repeat to make remaining tamales."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add tamales with the open side up; cook until filling is heated through and separates from the husk, about 1 hour."},{"recipe_directions":"Let tamales rest for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"165\nCalories\n\n\n10g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641197-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XSuzj6khKUTDnAaKfk_APAZG7fY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(419x554:421x556):format(webp)/9281485-authentic-mexican-corn-bread-Lisa-Lodermeier-4x3-1-1a3f416bc27d475a93810ec146b95776.jpg"
@@ -400,59 +729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221432/authentic-mexican-corn-bread/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Authentic Mexican Corn Bread</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n1 pan cornbread"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can sweetened condensed milk (such as La Lechera®)\n\n\n½ cup white sugar (Optional)\n\n\n5  large eggs\n\n\n2 teaspoons vanilla extract\n\n\n2 (15.25 ounce) cans whole kernel corn, drained and rinsed\n\n\n1 (15 ounce) can cream-style corn\n\n\n½ cup butter, melted\n\n\n2 ½ cups cornmeal\n\n\n½ cup all-purpose flour\n\n\n1 tablespoon baking soda\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can sweetened condensed milk (such as La Lechera®)\n\n\n½ cup white sugar (Optional)\n\n\n5  large eggs\n\n\n2 teaspoons vanilla extract\n\n\n2 (15.25 ounce) cans whole kernel corn, drained and rinsed\n\n\n1 (15 ounce) can cream-style corn\n\n\n½ cup butter, melted\n\n\n2 ½ cups cornmeal\n\n\n½ cup all-purpose flour\n\n\n1 tablespoon baking soda\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease and flour a 2-quart baking dish."},{"recipe_directions":"Whisk sweetened condensed milk and sugar together in a large bowl. Whisk in eggs, and vanilla. Stir in whole kernel corn, cream-style corn, and butter."},{"recipe_directions":"Whisk cornmeal, flour, baking soda, and salt in a separate bowl; stir cornmeal mixture into the corn mixture."},{"recipe_directions":"Pour batter into the prepared baking dish."},{"recipe_directions":"Bake until a toothpick inserted into the center of the cornbread comes out clean, about 45 minutes. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Cornbread Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"448\nCalories\n\n\n14g \nFat\n\n\n74g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641204-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Xub0b72LBAzCoUfiTRp1uc4jkZ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8062237-b3231a095c634cd69527fcceef5f3ce1.jpg"
@@ -465,59 +790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216898/tex-mex-enchiladas/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Tex-Mex Enchiladas</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n5 \n\n\nYield:\n15 enchiladas"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (11.25 ounce) cans chili without beans\n\n\n1 cup enchilada sauce\n\n\n½ cup vegetable oil\n\n\n1 tablespoon chili powder\n\n\n15  corn tortillas\n\n\n1 pound shredded Cheddar cheese\n\n\n1  onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (11.25 ounce) cans chili without beans\n\n\n1 cup enchilada sauce\n\n\n½ cup vegetable oil\n\n\n1 tablespoon chili powder\n\n\n15  corn tortillas\n\n\n1 pound shredded Cheddar cheese\n\n\n1  onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix the chili and enchilada sauce together in a small saucepan over medium-low heat, stirring occasionally as it simmers."},{"recipe_directions":"Heat the vegetable oil and chili powder together in a small skillet over medium heat. Gently lay a tortilla in the hot oil and cook until the tortilla starts to puff. Remove with a spatula and place on a plate. Immediately sprinkle about 1/4 cup Cheddar cheese and 1 tablespoon chopped onion down the center of the tortilla; roll the tortilla tightly around the mixture and place, seam-side down, into the bottom of a 9x13-inch baking dish. Repeat this process until all the tortillas are used."},{"recipe_directions":"Sprinkle about 2/3 of the remaining Cheddar cheese over the rolled enchiladas. Pour the warm chili mixture evenly over the enchiladas. Scatter the remaining Cheddar cheese over the layer of the chili mixture."},{"recipe_directions":"Bake in the preheated oven until the top is bubbling, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Enchilada Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"933\nCalories\n\n\n59g \nFat\n\n\n69g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641209-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6OCY5FtUm0Xu59VUaqXQYg1_cRM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1042854-d300152f8a7842e1a58946c59bfa6330.jpg"
@@ -530,59 +851,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213708/spicy-avocado-sauce/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Spicy Avocado Sauce</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6 \n\n\nYield:\n1 1/2 cups"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  fresh tomatillos, husks removed\n\n\n4  serrano chile peppers, or to taste\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  ripe avocado - peeled, pitted, and quartered\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  fresh tomatillos, husks removed\n\n\n4  serrano chile peppers, or to taste\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  ripe avocado - peeled, pitted, and quartered\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend tomatillos, serrano chile peppers, and cilantro in a blender until smooth. Add 1 avocado quarter and continue blending until avocado is fully incorporated into mixture; repeat with each piece of avocado. Season with salt; continue processing until smooth. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Salsa Verde Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"64\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641214-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SKDFs8aKUJjAar-ZRFRyHck20Ts=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/536610-25735f791b5c41efb4be8344450346b6.jpg"
@@ -595,59 +912,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213706/mexican-white-rice/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Mexican White Rice</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n½ cup fresh corn kernels\n\n\n1  fresh poblano chile pepper - seeded, deveined, and chopped\n\n\n½  onion, chopped\n\n\n¼ cup drained canned peas\n\n\n1 clove garlic, minced\n\n\n¼ cup minced carrot\n\n\n1 cup water\n\n\n1 cup milk\n\n\n2 tablespoons butter\n\n\n1 cup white rice, rinsed and drained\n\n\n1 tablespoon chicken bouillon granules"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n½ cup fresh corn kernels\n\n\n1  fresh poblano chile pepper - seeded, deveined, and chopped\n\n\n½  onion, chopped\n\n\n¼ cup drained canned peas\n\n\n1 clove garlic, minced\n\n\n¼ cup minced carrot\n\n\n1 cup water\n\n\n1 cup milk\n\n\n2 tablespoons butter\n\n\n1 cup white rice, rinsed and drained\n\n\n1 tablespoon chicken bouillon granules'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a large saucepan over medium-high heat; cook the corn kernels in the hot oil until tender, about 5 minutes. Stir the poblano pepper, onion, peas, garlic, and carrot into the corn; cook and stir another 5 minutes."},{"recipe_directions":"Pour the water and milk into the mixture; bring to a boil. Allow the butter to melt into the boiling mixture. Add the rice and stir. Season with chicken bouillon; cover the saucepan, reduce heat to medium-low, and simmer the mixture until all the liquid is absorbed and the rice is tender, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"228\nCalories\n\n\n8g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641220-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7zl15aO-LZneYMpRcSMYh7koDXg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(757x351:759x353):format(webp)/1052201-carne-asada-tacos-or-al-pastor-tacos-Bibi-4x3-1-83420d38e57049978105e9d404bed49d.jpg"
@@ -661,59 +974,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223173/carne-asada-tacos-or-al-pastor-tacos/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Carne Asada Tacos or Al Pastor Tacos</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½  onion, chopped\n\n\n2 cloves garlic\n\n\n2 teaspoons chopped fresh parsley\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon paprika\n\n\n1 teaspoon anise seed\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried sage\n\n\n¼ teaspoon ground thyme\n\n\n2  bay leaves\n\n\n5  whole cloves\n\n\n½ cup soy sauce\n\n\n1 cup cider vinegar\n\n\n1  orange, juiced\n\n\n1  lime, juiced\n\n\n2 pounds flank steak\n\n\n1  onion, chopped\n\n\n2  tomatoes, chopped\n\n\n¼ (7 ounce) can chipotle peppers in adobo sauce, or to taste\n\n\n3 cloves garlic\n\n\n1 tablespoon water, or as needed\n\n\n24 (5 inch) corn tortillas\n\n\n½  onion, chopped\n\n\n½ bunch cilantro, chopped\n\n\n1 bunch radishes, halved"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½  onion, chopped\n\n\n2 cloves garlic\n\n\n2 teaspoons chopped fresh parsley\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon paprika\n\n\n1 teaspoon anise seed\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried sage\n\n\n¼ teaspoon ground thyme\n\n\n2  bay leaves\n\n\n5  whole cloves\n\n\n½ cup soy sauce\n\n\n1 cup cider vinegar\n\n\n1  orange, juiced\n\n\n1  lime, juiced\n\n\n2 pounds flank steak\n\n\n1  onion, chopped\n\n\n2  tomatoes, chopped\n\n\n¼ (7 ounce) can chipotle peppers in adobo sauce, or to taste\n\n\n3 cloves garlic\n\n\n1 tablespoon water, or as needed\n\n\n24 (5 inch) corn tortillas\n\n\n½  onion, chopped\n\n\n½ bunch cilantro, chopped\n\n\n1 bunch radishes, halved'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 1/2 chopped onion, 2 cloves garlic, parsley, oregano, paprika, anise seed, black pepper, cumin, sage, thyme, bay leaves, cloves, soy sauce, vinegar, orange juice, and lime juice in a blender; pulse until a very well-blended paste is achieved, scraping down sides as needed, 3 to 5 minutes. Spread paste on both sides of the flank steak. Wrap steak in plastic and refrigerate at least 6 hours to overnight."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate. Remove excess marinade from flank steak."},{"recipe_directions":"Grill steak until it begins to firm and is hot and slightly pink in the center, about 8 minutes per side. An instant-read thermometer inserted into the center should read 140 degrees F (60 degrees C). Chop steak into small pieces and transfer to a platter; cover and keep warm until ready to serve."},{"recipe_directions":"Place 1 chopped onion, tomatoes, chipotle peppers, and 3 cloves garlic in a blend; pulse until desired consistency. Add water if the salsa becomes too thick. Transfer salsa to a bowl."},{"recipe_directions":"Heat tortillas in a microwave safe plate until warm, about 1 minute."},{"recipe_directions":"Serve beef over stacks of two corn tortillas with salsa and sprinkle with remaining 1/2 chopped onion, radishes, and cilantro."},{"recipe_directions":"You may also use pork loin or pork chops. This recipe works really well with almost any variety or cut of meat. Thinly cut steaks work best with the tacos."},{"recipe_directions":"If you want to blend the flavors even more, you can simmer the paste in a saucepan stirring constantly and allow to cool. Filter marinade through a fine strainer and rub on both sides of steak."},{"recipe_directions":"You can tinker with this recipe to make the marinade as strong or as weak as you wish. You can double up or cut the marinade ingredients in half or increase the amount of any particular herb or spice. I find that the flavor of the meat in this recipe is almost addicting and I always end up grilling about ten pounds of beef so I make extra marinade. The longer you marinade the meat, the better."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Taco Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"400\nCalories\n\n\n9g \nFat\n\n\n54g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641227-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PDvLg_qCwLwNfHKDvzct6daozZo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1007x0:1009x2):format(webp)/9396056-76dd519dbb3a485184a0c124f67602c5.jpg"
@@ -726,59 +1035,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259297/pastel-de-elote-mexican-corn-cake/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Pastel de Elote (Mexican Corn Cake)</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ears sweet white corn, husked\n\n\n1 ¾ cups softened butter, plus more for baking dish\n\n\n5  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n½ cup milk\n\n\n2 cups all-purpose flour, plus additional for dusting\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ears sweet white corn, husked\n\n\n1 ¾ cups softened butter, plus more for baking dish\n\n\n5  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n½ cup milk\n\n\n2 cups all-purpose flour, plus additional for dusting\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease and flour a 9-inch cake pan. Chill in freezer."},{"recipe_directions":"Cut kernels from ears of corn with a sharp knife. Beat butter in a large bowl with an electric mixer until smooth and creamy."},{"recipe_directions":"Combine eggs, condensed milk, whole milk, and corn kernels in a blender; blend until smooth. Transfer egg mixture to a bowl with butter and mix well."},{"recipe_directions":"Sift flour, baking powder, cinnamon, and salt into a large bowl. Add egg mixture and mix well to combine."},{"recipe_directions":"Remove cake pan from freezer. Grease and flour again. Pour batter into prepared pan."},{"recipe_directions":"Bake in the preheated oven until cake is golden brown and a toothpick inserted in the center comes out clean, about 45 minutes. Cool in the pan for 15 minutes, then remove from tin and cool on a wire rack."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"379\nCalories\n\n\n25g \nFat\n\n\n35g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641233-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vwz9O1UqI3684I4AX1c-WDESv5Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5287787-f822e31b50d244b4bbf387824a52ea7a.jpg"
@@ -791,59 +1096,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263627/mexican-mango-and-white-fish-ceviche/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Mexican Mango and White Fish Ceviche</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr 40 mins\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds white fish, cut into small cubes\n\n\n4  limes, juiced\n\n\n½  orange, juiced\n\n\n1 tablespoon olive oil\n\n\n1  green chile pepper, chopped\n\n\n2  mangoes, cut into cubes\n\n\n5  green onions, chopped\n\n\n3  tomatoes, seeded and chopped\n\n\n½ cup chopped fresh cilantro\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds white fish, cut into small cubes\n\n\n4  limes, juiced\n\n\n½  orange, juiced\n\n\n1 tablespoon olive oil\n\n\n1  green chile pepper, chopped\n\n\n2  mangoes, cut into cubes\n\n\n5  green onions, chopped\n\n\n3  tomatoes, seeded and chopped\n\n\n½ cup chopped fresh cilantro\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine white fish, lime juice, orange juice, oil, and chile pepper in a glass or ceramic bowl. Cover with plastic wrap and refrigerate for 90 minutes."},{"recipe_directions":"Mix in mangoes and green onions, cover, and chill for 10 minutes more."},{"recipe_directions":"Gently fold in tomatoes and cilantro. Season with salt and pepper and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Ceviche Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"148\nCalories\n\n\n6g \nFat\n\n\n10g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641239-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8hEhbese1Bdk0Oe9bOpv40qyySA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5206368-f6d5dc48860842889a0f4bd7cadfc5fd.jpg"
@@ -856,59 +1157,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263128/jicama-tortillas/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Jicama Tortillas</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n18"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large jicama"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large jicama'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wash jicama thoroughly with cool water and remove all dirt using a vegetable brush. Trim both ends of the jicama and peel with a vegetable peeler, removing all skin and tough flesh."},{"recipe_directions":"Cut jicama first in half crosswise, then cut each half into paper-thin slices using a sharp knife or the thinnest blade of a mandoline."},{"recipe_directions":"Use them immediately as crisp tortillas, or store them for up to a week in a resealable plastic bag in the fridge."},{"recipe_directions":"Jicama \"tortillas\" can be softened in different ways: 1) Place them in a steamer insert and steam over boiling water for 2 minutes. Drain over a kitchen towel. 2) Place them in a microwave-safe bowl with 2 tablespoons of water, cover, and microwave on high for 2 minutes. Drain over a kitchen towel. 3) Heat a large griddle over medium heat. Brush jicama tortillas with a small amount of oil and heat 30 seconds per side, until soft."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"25\nCalories\n\n\n0g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641248-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iks2z79kiATLMWQc2XI1HTIxRN4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5181332-sweet-tamales-with-pineapple-and-coconut-Sony-4x3-1-e3ba3a3c2760441c93d1833e3d8d8ec2.jpg"
@@ -922,59 +1219,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261683/sweet-tamales-with-pineapple-and-coconut/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Sweet Tamales with Pineapple and Coconut</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 3 hrs 15 mins\n\n\nTotal Time:\n 4 hrs 35 mins\n\n\nServings:\n36 \n\n\nYield:\n36 tamales"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"corn husks\n\n\n2 pounds chopped fresh pineapple\n\n\n1 ½ cups water\n\n\n1 ¼ cups white sugar\n\n\n2 pounds fresh corn masa dough\n\n\n1 cup unsalted butter\n\n\n2 tablespoons baking powder\n\n\n1 cup grated coconut\n\n\n⅔ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'corn husks\n\n\n2 pounds chopped fresh pineapple\n\n\n1 ½ cups water\n\n\n1 ¼ cups white sugar\n\n\n2 pounds fresh corn masa dough\n\n\n1 cup unsalted butter\n\n\n2 tablespoons baking powder\n\n\n1 cup grated coconut\n\n\n⅔ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corn husks in a bowl, cover with boiling water, and soak for about 3 hours. Drain, place on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"Combine pineapple, water, and sugar in a saucepan and cook over medium heat until pineapple is very soft, 7 to 10 minutes. Drain."},{"recipe_directions":"Mix masa dough with butter and baking powder in a bowl until well combined. Add cooked pineapple, coconut, and raisins; knead into a smooth dough."},{"recipe_directions":"Select 1 wide corn husk or 2 small ones. Spread about 1 tablespoons masa mixture onto the corn husk, filling it up to 2 inches from the bottom and 1/4 inch from the top. Fold sides of husk together, one over the other. Fold the bottom of the husk over the seam of the 2 folded sides. Repeat with remaining husks."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add tamales with the open side up and cook until filling is heated through and separates from the husk, about 45 minutes. Let tamales stand for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n7g \nFat\n\n\n22g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641253-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mni_oikA8I8cDefRuX_TjyL-JUw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/788348-341b864411304af4aac57e65a4bffbcb.jpg"
@@ -987,59 +1280,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214065/pickled-jalapenos-and-carrots/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Pickled Jalapenos and Carrots</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups distilled white vinegar\n\n\n¼ cup white sugar\n\n\n10  jalapeno peppers, thinly sliced\n\n\n2 cups sliced carrots (1/4-inch thick slices)\n\n\n½  red onion, cut into 1/4 inch-thick rings"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups distilled white vinegar\n\n\n¼ cup white sugar\n\n\n10  jalapeno peppers, thinly sliced\n\n\n2 cups sliced carrots (1/4-inch thick slices)\n\n\n½  red onion, cut into 1/4 inch-thick rings'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring the vinegar and sugar to a boil in a saucepan over high heat. Cook and stir until the sugar has dissolved, then stir in the jalapeno peppers, carrots, and onion. Remove from the heat and let stand for 1 hour. Cool to room temperature before serving."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Carrots"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"30\nCalories\n\n\n0g \nFat\n\n\n7g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641260-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fHYGK3093QgL7IQWjlEIgDQcRPE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8245419-222f5a98c77b43a08cac20a1d83eac66.jpg"
@@ -1052,59 +1341,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261636/green-chicken-tamales/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Green Chicken Tamales</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n35 \n\n\nYield:\n35 tamales"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"corn husks\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n  salt to taste\n\n\n  water to cover\n\n\n¾ pound fresh tomatillos, husks removed\n\n\n2  serrano peppers, or more to taste\n\n\n1  onion, chopped\n\n\n3 tablespoons chopped fresh cilantro\n\n\n1 clove garlic, minced\n\n\n1 cup unsalted butter, softened, divided\n\n\n3 cups chicken broth\n\n\n1 pound masa harina\n\n\n1 ½ teaspoons baking powder\n\n\n1 ½ teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'corn husks\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n  salt to taste\n\n\n  water to cover\n\n\n¾ pound fresh tomatillos, husks removed\n\n\n2  serrano peppers, or more to taste\n\n\n1  onion, chopped\n\n\n3 tablespoons chopped fresh cilantro\n\n\n1 clove garlic, minced\n\n\n1 cup unsalted butter, softened, divided\n\n\n3 cups chicken broth\n\n\n1 pound masa harina\n\n\n1 ½ teaspoons baking powder\n\n\n1 ½ teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corn husks in a bowl, cover with boiling water, and soak for 30 to 60 minutes. Drain, place on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"Place chicken in a pot, season with salt, and cover with water. Bring to a boil over medium-high heat, reduce heat, cover, and simmer until chicken is cooked through, 20 to 25 minutes. Drain chicken and shred with 2 forks."},{"recipe_directions":"Place tomatillo and serrano peppers in a pot while chicken is cooking, cover with water, and bring to a boil. Cook until tomatillos are soft and have changed color, but are not falling apart, 3 to 5 minutes."},{"recipe_directions":"Combine tomatillos, serrano peppers, onion, cilantro, and garlic in a blender; blend into a smooth sauce."},{"recipe_directions":"Heat 1 tablespoon butter in a saucepan over medium heat and add tomatillo sauce. Cook until sauce has slightly thickened, 3 to 5 minutes. Add shredded chicken and season filling with salt."},{"recipe_directions":"Beat remaining butter in a large bowl with an electric mixer until creamy. Add chicken broth, masa harina, baking powder, and 1 1/2 teaspoons salt and beat well until combined and the consistency of cookie dough. Test if the masa is ready by dropping a small ball of masa into a glass of cold water; if it floats, it's ready, if not, keep beating for a little longer."},{"recipe_directions":"Select 1 wide corn husk or 2 small ones. Spread about 2 tablespoons masa mixture onto the the corn husk, filling it up to 2 inches from the bottom and 1/4 inch from the top. Add 1 tablespoon of filling down the center of the masa mixture. Fold sides of husk together, one over the other. Fold the bottom of the husk over the seam of the 2 folded sides. Repeat with remaining husks."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add tamales with the open side up and cook until filling is heated through and separates from the husk, about 1 hour. Let tamales stand for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"115\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641267-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/01ANvJomO8bPuXi6HSca6Zj6xrQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5225493-a3b609b7c0684597b8d2a63cc384c620.jpg"
@@ -1117,59 +1402,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263159/beef-barbacoa-barbacoa-de-res/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Beef Barbacoa (Barbacoa de Res)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 50 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ½ pounds beef brisket\n\n\n1  white onion, halved\n\n\n3 cloves garlic\n\n\n3  bay leaves\n\n\n  salt to taste\n\n\n  water to cover"},{"recipe_ingredients":"6 small guajillo chile peppers, seeded and deveined\n\n\n2 small ancho chile peppers, seeded and deveined\n\n\n3 tablespoons white vinegar\n\n\n2 cloves garlic\n\n\n4  whole cloves\n\n\n3  whole allspice berries\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried thyme\n\n\n¼ teaspoon cumin seeds\n\n\n¼ teaspoon ground ginger\n\n\n1 pinch ground cinnamon\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ½ pounds beef brisket\n\n\n1  white onion, halved\n\n\n3 cloves garlic\n\n\n3  bay leaves\n\n\n  salt to taste\n\n\n  water to cover'}, {'recipe_ingredients': '6 small guajillo chile peppers, seeded and deveined\n\n\n2 small ancho chile peppers, seeded and deveined\n\n\n3 tablespoons white vinegar\n\n\n2 cloves garlic\n\n\n4  whole cloves\n\n\n3  whole allspice berries\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried thyme\n\n\n¼ teaspoon cumin seeds\n\n\n¼ teaspoon ground ginger\n\n\n1 pinch ground cinnamon\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place brisket in a stovetop pressure cooker. Add onion, garlic, bay leaves, and salt; cover with water. Close cooker securely and place pressure regulator over vent according to manufacturer's instructions. Heat until steam escapes in a steady flow and makes a whistling sound, about 10 minutes. Adjust temperature until regulator is gently rocking. Cook for 60 minutes."},{"recipe_directions":"Let pressure release naturally according to manufacturer's instructions, 5 to 10 minutes. Unlock lid and remove."},{"recipe_directions":"Remove brisket from the pressure cooker and shred with 2 forks. Strain the cooking liquid, discarding solids. Measure 2 cups for the barbacoa sauce and save the rest for another use."},{"recipe_directions":"Combine guajillo chile peppers and ancho chile peppers in a saucepan. Cover with water, bring to a boil, and cook for 5 minutes. Remove from heat and let stand in the hot water until softened, about 5 minutes. Drain."},{"recipe_directions":"Combine softened chile peppers, vinegar, garlic, cloves, allspice, black pepper, oregano, thyme, cumin, ginger, cinnamon and reserved 2 cups cooking liquid; blend until thick and very smooth."},{"recipe_directions":"Pour sauce into a heavy-bottomed pot over medium heat and season with salt. Bring to a soft boil; reduce the heat to low. Stir in shredded beef, coating completely with sauce. Cover pot and cook until flavors combine, at least 30 minutes and up to 1 hour."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of barbacoa sauce. The actual amount of sauce consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"173\nCalories\n\n\n5g \nFat\n\n\n6g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641273-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LGzvddM_VTSFdlt6lHHdEB4qP-0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2111134-mexican-oxtail-beef-soup-Elizabeth-4x3-1-aaaee460b89f4403b365ff359ce624bb.jpg"
@@ -1183,59 +1464,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214090/mexican-oxtail-beef-soup/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Mexican Oxtail Beef Soup</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 3 hrs 30 mins\n\n\nTotal Time:\n 4 hrs\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n2 pounds beef oxtail, cut into pieces\n\n\n1 pound cubed beef stew meat (Optional)\n\n\n1 cube beef bouillon\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n½ teaspoon chili powder\n\n\n¾ teaspoon ground cumin\n\n\n  salt and pepper to taste\n\n\n4 ears corn on the cob, broken in half\n\n\n3  carrots, coarsely chopped\n\n\n2  russet potatoes, cut into bite-sized pieces\n\n\n⅓ cup lentils, picked over and rinsed\n\n\n⅓ cup long grain rice\n\n\n1 cup frozen mixed vegetables (Optional)\n\n\n1 head cabbage, cored and cut into 8 wedges\n\n\n8  corn tortillas (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n2 pounds beef oxtail, cut into pieces\n\n\n1 pound cubed beef stew meat (Optional)\n\n\n1 cube beef bouillon\n\n\n1  onion, chopped\n\n\n2 stalks celery, chopped\n\n\n½ teaspoon chili powder\n\n\n¾ teaspoon ground cumin\n\n\n  salt and pepper to taste\n\n\n4 ears corn on the cob, broken in half\n\n\n3  carrots, coarsely chopped\n\n\n2  russet potatoes, cut into bite-sized pieces\n\n\n⅓ cup lentils, picked over and rinsed\n\n\n⅓ cup long grain rice\n\n\n1 cup frozen mixed vegetables (Optional)\n\n\n1 head cabbage, cored and cut into 8 wedges\n\n\n8  corn tortillas (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a large soup pot over medium heat, and brown the oxtails and beef stew meat on all sides. Add water to cover the meat, bring to a boil, reduce heat to a simmer, and cook for 30 minutes. Skim off and discard any foam that collects at the top."},{"recipe_directions":"Drop in the bouillon cube, onion, celery, chili powder, cumin, salt, pepper, and corn ears, stir to combine, and simmer the soup until the meat is very tender, about 2 hours. Stir in the carrots and potatoes, simmer for 30 more minutes, then stir in the lentils, rice, mixed vegetables, and cabbage. Simmer until the rice, lentils, and cabbage are tender, about 30 more minutes. Serve with a half ear of corn in each bowl, with hot steamed tortillas for dipping in the broth."},{"recipe_directions":"This recipe takes the whole afternoon to slowly simmer, but is worth it when the flavors mix and the meat is nice and tender. All ingredients and spices are approximate. Make it your own, flavor to your taste!"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beef Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"503\nCalories\n\n\n16g \nFat\n\n\n56g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641279-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/629aO5l9hYl9DQj1VMxS5enbQpA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7436904-4ee24c26f15541839d55dfa3bdd49e64.jpg"
@@ -1246,59 +1523,55 @@
 Sweet Pineapple Tamales</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262521/sweet-pineapple-tamales/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sweet Pineapple Tamales</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n30 \n\n\nYield:\n30 tamales"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"corn husks\n\n\n2 pounds fresh corn masa dough\n\n\n½ teaspoon baking soda\n\n\n2 tablespoons warm water, or as needed\n\n\n1 cup unsalted butter, at room temperature\n\n\n1 cup vegetable shortening, at room temperature\n\n\n1 cup white sugar\n\n\n1 (20 ounce) can pineapple, drained and finely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'corn husks\n\n\n2 pounds fresh corn masa dough\n\n\n½ teaspoon baking soda\n\n\n2 tablespoons warm water, or as needed\n\n\n1 cup unsalted butter, at room temperature\n\n\n1 cup vegetable shortening, at room temperature\n\n\n1 cup white sugar\n\n\n1 (20 ounce) can pineapple, drained and finely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corn husks in a bowl, cover with boiling water, and soak for 30 to 60 minutes. Drain, place on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"While corn husks are soaking, combine masa dough, baking soda, and water in a bowl. Knead until dough has a smooth and even consistency, adding more water, 1 teaspoon at a time, as needed. Take care not to add too much water."},{"recipe_directions":"Beat butter, vegetable shortening, and sugar together in a second bowl with an electric mixer until smooth and creamy. Slowly add masa dough and knead until mixture has a uniform consistency. Mix in chopped pineapple."},{"recipe_directions":"Spread about 1 tablespoon masa mixture onto a corn husk. Fold the bottom of the husk over the filling, then fold sides of husk together, one over the other. Finally fold the top of the husk into the tamale, making a little package. Repeat with remaining husks."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil, then reduce heat to medium low. Add tamales with the open side up and cook covered until filling is heated through and separates from the husk, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n14g \nFat\n\n\n20g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641285-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bcXg7AJgSCHq08TQDA8_uynhu8E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2578523-28ebc132e09b4f598bfb14721fb9e444.jpg"
@@ -1311,59 +1584,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215235/home-style-tacos-al-pastor-chile-and-pineapple-pork-tacos/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Home-style Tacos al Pastor (Chile and Pineapple Pork Tacos)</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5  Goya Guajillo Chiles\n\n\n5  Goya Pasilla Chiles or Goya Ancho Chiles\n\n\n1  chipotle pepper from a can of Goya Chipotle Chile in Adobo Sauce\n\n\n1 medium white onion, halved\n\n\n1 (20 ounce) can Goya Pineapple Chunks\n\n\n¼ cup Goya White Vinegar\n\n\n2 tablespoons Goya Minced Garlic\n\n\n1 teaspoon Goya Cumin\n\n\n  Goya Adobo with Pepper, to taste\n\n\n1 (2 1/2 pound) boneless, skinless pork butt, cut into 1/2-inch cubes\n\n\n2 tablespoons Goya Vegetable Oil"},{"recipe_ingredients":"1 (10 ounce) package Goya Corn Tortillas, warmed\n\n\n2 tablespoons finely chopped fresh cilantro\n\n\n1  lime, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5  Goya Guajillo Chiles\n\n\n5  Goya Pasilla Chiles or Goya Ancho Chiles\n\n\n1  chipotle pepper from a can of Goya Chipotle Chile in Adobo Sauce\n\n\n1 medium white onion, halved\n\n\n1 (20 ounce) can Goya Pineapple Chunks\n\n\n¼ cup Goya White Vinegar\n\n\n2 tablespoons Goya Minced Garlic\n\n\n1 teaspoon Goya Cumin\n\n\n  Goya Adobo with Pepper, to taste\n\n\n1 (2 1/2 pound) boneless, skinless pork butt, cut into 1/2-inch cubes\n\n\n2 tablespoons Goya Vegetable Oil'}, {'recipe_ingredients': '1 (10 ounce) package Goya Corn Tortillas, warmed\n\n\n2 tablespoons finely chopped fresh cilantro\n\n\n1  lime, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring 2 cups water to boil in medium saucepan over medium-high heat. Add guajillo and pasilla chiles. Reduce heat to medium-low and simmer until chiles soften, about 10 minutes; transfer to plate. Remove and discard stem and seeds. Meanwhile, coarsely chop one onion half; reserve remaining half. Strain pineapples; reserve juice and fruit separately."},{"recipe_directions":"Transfer guajillo, pasilla and chipotle chiles, chopped onion half, reserved pineapple juice, vinegar, garlic and cumin to bowl of food processor. Puree until smooth, about 2 minutes. Transfer chile mixture to saucepan over medium-high heat. Bring chile mixture to a boil; cook until paste loses raw onion taste, about 2 minutes. Season with Adobo; cool. In large container with lid, or in large ziptop bag, combine pork cubes, cooled chile marinade and reserved pineapple chunks; transfer to refrigerator. Marinate at least 2 hours, or up to 24 hours."},{"recipe_directions":"Heat oil in large skillet over medium-high heat. Strain pork and pineapples, discarding marinade. Add pork and pineapples to skillet. Cook in batches until dark golden brown on all sides and cooked through, about 15 minutes; transfer to large serving plate."},{"recipe_directions":"Meanwhile, finely slice remaining onion half. Transfer sliced onion to bowl with cilantro. Serve pork and pineapple mixture in warm tortillas. Garnish pork tacos with cilantro, onions and limes."},{"recipe_directions":"Warm, soft tortillas, every time! Achieving perfectly warm and pliable tortillas can be tricky business: We find the microwave results in gummy, chewy rounds while the oven dries them out. Our tried-and-true method: steaming. To do, fill a steamer with 1/2 inch water; bring to a boil and reduce heat to medium-low. In the meantime, wrap the tortillas in a dish towel. Then, place the bundle in the steamer, cover with a tight-fitting lid and heat until warm, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Trusted Brands: Recipes and Tips"},{"recipe_tags":"Goya®"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641291-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MfGhj1i6GBBFNfl_1onlquR78c8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(674x0:676x2):format(webp)/4585137-02f7c9171632486098e40f3c8835d270.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261633/tamales-de-puerco-red-pork-tamales/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Tamales de Puerco (Red Pork Tamales)</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n15 \n\n\nYield:\n15 tamales"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds boneless pork shoulder, trimmed\n\n\n½  onion\n\n\n4 cloves garlic, minced\n\n\n2  bay leaves\n\n\n  salt to taste\n\n\n  water to cover\n\n\n  corn husks"},{"recipe_ingredients":"1 pound Roma tomatoes\n\n\n4  dried chile de arbol peppers\n\n\n4 small guajillo chile peppers, stemmed and seeded\n\n\n1 tablespoon cornstarch"},{"recipe_ingredients":"1 ¼ cups lard\n\n\n4 ½ cups fresh corn masa dough\n\n\n1 tablespoon salt\n\n\n1 tablespoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds boneless pork shoulder, trimmed\n\n\n½  onion\n\n\n4 cloves garlic, minced\n\n\n2  bay leaves\n\n\n  salt to taste\n\n\n  water to cover\n\n\n  corn husks'}, {'recipe_ingredients': '1 pound Roma tomatoes\n\n\n4  dried chile de arbol peppers\n\n\n4 small guajillo chile peppers, stemmed and seeded\n\n\n1 tablespoon cornstarch'}, {'recipe_ingredients': '1 ¼ cups lard\n\n\n4 ½ cups fresh corn masa dough\n\n\n1 tablespoon salt\n\n\n1 tablespoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut pork into 3 chunks and place in a large saucepan. Add onion, garlic, bay leaves, and salt and cover with water. Bring to a boil; skim foam from surface. Reduce heat, cover, and simmer for 1 hour. Remove pork and let cool. Strain broth and reserve."},{"recipe_directions":"Bring a pot of water to a boil while pork is cooking. Add tomatoes, arbol chiles, and guajillo chiles, and boil until chiles are soft, about 5 minutes. Remove with a slotted spoon, reserving cooking water, and allow to cool."},{"recipe_directions":"Place corn husks in a bowl, cover with boiling water, and soak for 30 to 60 minutes. Drain, place on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"Combine tomatoes, 1/2 cup cooking water, chiles de arbol, guajillo chiles, and cornstarch in a blender; blend until smooth. Strain tomato sauce through a fine-mesh sieve."},{"recipe_directions":"Beat lard with an electric mixer in a large bowl until fluffy. Combine masa, 1 cup reserved pork broth, 1 tablespoon salt, and baking powder in a separate bowl and mix until smooth. Add masa mixture to lard and mix until it has a smooth cookie dough consistency. Test if the masa is ready by dropping a small ball of masa into a glass of cold water; if it floats, it's ready, if not, keep beating for a little longer."},{"recipe_directions":"Shred cooled pork with 2 forks."},{"recipe_directions":"Select 1 wide corn husk or 2 small ones. Spread about 2 tablespoons masa mixture onto the the corn husk, filling it up to 2 inches from the bottom and 1/4 inch from the top. Add 1 tablespoon of the tomato sauce and pork down the center of the masa mixture. Fold sides of husk together, 1 over the other. Fold the bottom of the husk over the seam of the 2 folded sides. Repeat with remaining husks."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add tamales with the open side up and cook until filling is heated through and separates from the husk, about 1 hour. Let tamales rest for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"344\nCalories\n\n\n20g \nFat\n\n\n30g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641297-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hzd-zXhx2iFMPUSHu4XgXmFQCBI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5079311-2493ac08037a4877928e6c462aac53d0.jpg"
@@ -1441,59 +1706,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261685/tamales-oaxaquenos-oaxacan-style-tamales/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Tamales Oaxaqueños (Oaxacan-Style Tamales)</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 1 hr 45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n36 \n\n\nYield:\n36 tamales"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"11 ounces lard, divided\n\n\n  salt to taste\n\n\n9 cups masa harina\n\n\n1 cup warm chicken broth, divided\n\n\n3  fresh tomatillos, husks removed\n\n\n1  ancho chile pepper - stems, seeds, and veins removed\n\n\n1  mulato chile pepper - stems, seeds, and veins removed\n\n\n1 clove garlic, minced\n\n\n1 pinch freshly ground black pepper, or to taste\n\n\n1 pinch crushed dried oregano\n\n\n1 pound shredded cooked chicken\n\n\n36  banana leaves, softened"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '11 ounces lard, divided\n\n\n  salt to taste\n\n\n9 cups masa harina\n\n\n1 cup warm chicken broth, divided\n\n\n3  fresh tomatillos, husks removed\n\n\n1  ancho chile pepper - stems, seeds, and veins removed\n\n\n1  mulato chile pepper - stems, seeds, and veins removed\n\n\n1 clove garlic, minced\n\n\n1 pinch freshly ground black pepper, or to taste\n\n\n1 pinch crushed dried oregano\n\n\n1 pound shredded cooked chicken\n\n\n36  banana leaves, softened'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat 9 ounces lard in a large bowl with an electric mixer until creamy. Add salt and continue beating for a few minutes. Add masa harina and beat well until combined. Add chicken broth, 1/4 cup at a time, beating until masa has a smooth and workable consistency similar to cookie dough, about 3/4 cup total. Test if the masa is ready by dropping a small ball of masa into a glass of cold water; if it floats, it's ready, if not, beat the dough a little longer."},{"recipe_directions":"Combine tomatillos, ancho chile pepper, mulato chile pepper, garlic, salt, pepper, and oregano in a blender; blend until smooth."},{"recipe_directions":"Heat remaining 2 ounces lard in a skillet and cook tomatillo sauce until lightly thickened, 3 to 5 minutes. Add shredded chicken and a little of the remaining chicken broth. Cook over low heat until chicken filling has thickened, about 10 minutes."},{"recipe_directions":"Spread 2 to 3 tablespoons masa mixture onto 1 banana leaf, filling it up to 2 inches from the bottom and 1/4 inch from the top. Add 1 tablespoon of the chicken filling in the center of the masa mixture. Fold sides of banana leaf together, one over the other. Fold the bottom of the banana leaf over the seam of the 2 folded sides and tie together with kitchen string. Repeat with remaining banana leaves."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add tamales with the open side up and cook until filling is heated through and separates from the leaf, 1 hour 30 minutes to 2 hours. Let tamales rest for 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n11g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641303-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aAsqndbj-Tw2j6AmKwY8UFyn1Po=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/4585329-tacos-de-jamaica-vegan-hibiscus-tacos-Chef-Gaby-Cervello-4x3-1-1f0865f872ca4eada4fe4695a33cc649.jpg"
@@ -1507,59 +1768,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260001/tacos-de-jamaica-vegan-hibiscus-tacos/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Tacos de Jamaica (Vegan Hibiscus Tacos)</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n17 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 32 mins\n\n\nServings:\n18 \n\n\nYield:\n18 tortillas"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces dried hibiscus flowers\n\n\n1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n  salt and freshly ground black pepper to taste"},{"recipe_ingredients":"10  fresh tomatillos, husks removed\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¼  onion, chopped\n\n\n2  serrano peppers\n\n\n1 clove garlic\n\n\n2 tablespoons chopped fresh cilantro\n\n\n  salt to taste\n\n\n18  corn tortillas"},{"recipe_ingredients":"2 slices fresh pineapple, chopped\n\n\n1 small onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces dried hibiscus flowers\n\n\n1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n  salt and freshly ground black pepper to taste'}, {'recipe_ingredients': '10  fresh tomatillos, husks removed\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¼  onion, chopped\n\n\n2  serrano peppers\n\n\n1 clove garlic\n\n\n2 tablespoons chopped fresh cilantro\n\n\n  salt to taste\n\n\n18  corn tortillas'}, {'recipe_ingredients': '2 slices fresh pineapple, chopped\n\n\n1 small onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse hibiscus very well to make sure all dust is removed. Place clean hibiscus in a pot over medium heat, cover with water, and boil for 10 minutes. Remove hibiscus from heat and allow to steep for at least 2 hours, until hibiscus is very soft. Drain well."},{"recipe_directions":"Heat oil in a large skillet over medium heat and cook 1 onion and 2 cloves garlic until soft and translucent, about 2 minutes. Stir in drained hibiscus and season with salt and pepper. Cook for 5 minutes, stirring constantly, until hibiscus turns a deep red color."},{"recipe_directions":"Combine tomatillos, avocado, 1/4 onion, serrano peppers, 1 clove garlic, and 2 tablespoons cilantro; blend until smooth. Season salsa verde with salt."},{"recipe_directions":"Warm corn tortillas in a skillet. Divide hibiscus mixture amongst tortillas and top with pineapple, onion, and cilantro. Serve with salsa verde and lime."},{"recipe_directions":"You can use the liquid from soaking the hibiscus to make hibiscus agua fresca."},{"recipe_directions":"Watch the recipe video in Spanish on my blog: Gaby Cervello"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"101\nCalories\n\n\n3g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641310-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EL4cqykv-k4m5gayt7uq_AIhY5o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2649363-8639ffb50bad4a909e00811268cce46c.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/211541/pork-stew-in-green-salsa-guisado-de-puerco-con-tomatillos/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Pork Stew in Green Salsa (Guisado de Puerco con Tomatillos)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup all-purpose flour\n\n\n1 teaspoon salt (Optional)\n\n\n1 tablespoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n1 (3 pound) boneless pork shoulder roast, trimmed of excess fat and cut into 1-inch cubes\n\n\n2 tablespoons olive oil, or more if needed\n\n\n1 large onion, chopped\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped fresh tomatillos\n\n\n1 (7 ounce) can diced green chiles, drained\n\n\n2  fresh jalapeno peppers, seeded and chopped\n\n\n2 teaspoons dried marjoram\n\n\n½ cup chopped fresh cilantro\n\n\n1 cup water\n\n\n1 pinch salt, or to taste (Optional)\n\n\n2 tablespoons sour cream, divided\n\n\n6 sprigs cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup all-purpose flour\n\n\n1 teaspoon salt (Optional)\n\n\n1 tablespoon ground black pepper\n\n\n½ teaspoon ground cumin\n\n\n1 (3 pound) boneless pork shoulder roast, trimmed of excess fat and cut into 1-inch cubes\n\n\n2 tablespoons olive oil, or more if needed\n\n\n1 large onion, chopped\n\n\n3 cloves garlic, minced\n\n\n2 cups chopped fresh tomatillos\n\n\n1 (7 ounce) can diced green chiles, drained\n\n\n2  fresh jalapeno peppers, seeded and chopped\n\n\n2 teaspoons dried marjoram\n\n\n½ cup chopped fresh cilantro\n\n\n1 cup water\n\n\n1 pinch salt, or to taste (Optional)\n\n\n2 tablespoons sour cream, divided\n\n\n6 sprigs cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together the flour, 1 teaspoon salt, pepper, and cumin in a large bowl. Place the cubed pork into the mixture, and stir well to coat the meat with the seasonings."},{"recipe_directions":"Heat the olive oil in a large, heavy pan or Dutch oven over medium-high heat until the oil shimmers. Working in batches if necessary, place the meat into the hot pan in a single layer. Pan-fry the pork until brown on all sides, about 15 minutes. Remove the pork to a bowl, and cover to keep warm."},{"recipe_directions":"Cook and stir the onion in the hot pan over medium heat, adding more olive oil if necessary, until the onion is translucent and beginning to brown, about 7 minutes. Return the meat to the pan and stir in the garlic, tomatillos, chiles, marjoram, chopped cilantro, and water. Check seasoning and add 1 pinch of salt to taste, if needed. Cover and simmer over low heat, stirring occasionally, until the meat is tender, about 1 hour. Skim excess fat off the stew before serving in bowls, garnished with a dollop of sour cream and a cilantro sprig on each bowl."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Pork"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"346\nCalories\n\n\n16g \nFat\n\n\n18g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641317-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sohX9QXNdI5bncqOyyDWcSCt76g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/JD_25897-1x1-1-1fad9867d82d423c8bf7dd897f542f66.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259373/chiles-en-nogada-mexican-stuffed-poblano-peppers-in-walnut-sauce/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Chiles en Nogada (Mexican Stuffed Poblano Peppers in Walnut Sauce)</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  poblano peppers"},{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, finely chopped\n\n\n1 ¾ pounds ground pork\n\n\n2 cups peeled, seeded, and chopped tomatoes\n\n\n1  ripe plantain, chopped\n\n\n1  apple, chopped\n\n\n1  fresh peach, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n2 tablespoons chopped candied orange peel\n\n\n2 tablespoons pine nuts\n\n\n2 tablespoons raisins\n\n\n2 tablespoons blanched almonds, chopped\n\n\n4  whole cloves, ground\n\n\n  salt and pepper to taste"},{"recipe_ingredients":"2 ½ cups chopped walnuts\n\n\n1 ¾ cups milk\n\n\n¾ cup soft goat cheese\n\n\n1 tablespoon white sugar\n\n\n1 (1 inch) piece cinnamon stick"},{"recipe_ingredients":"1 ½ cups pomegranate seeds\n\n\n½ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  poblano peppers'}, {'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, finely chopped\n\n\n1 ¾ pounds ground pork\n\n\n2 cups peeled, seeded, and chopped tomatoes\n\n\n1  ripe plantain, chopped\n\n\n1  apple, chopped\n\n\n1  fresh peach, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n2 tablespoons chopped candied orange peel\n\n\n2 tablespoons pine nuts\n\n\n2 tablespoons raisins\n\n\n2 tablespoons blanched almonds, chopped\n\n\n4  whole cloves, ground\n\n\n  salt and pepper to taste'}, {'recipe_ingredients': '2 ½ cups chopped walnuts\n\n\n1 ¾ cups milk\n\n\n¾ cup soft goat cheese\n\n\n1 tablespoon white sugar\n\n\n1 (1 inch) piece cinnamon stick'}, {'recipe_ingredients': '1 ½ cups pomegranate seeds\n\n\n½ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Roast poblano chiles over an open flame on a gas stove or grill until the skin is black and charred on all sides, turning often, 10 to 15 minutes."},{"recipe_directions":"Place the charred chiles in a plastic bag or in a large bowl covered with plastic wrap. Allow to sit for 5 to 10 minutes, then open and peel off the skin. Cut a slit in each chile lengthwise and remove the seeds."},{"recipe_directions":"Heat olive oil in a large pot over medium heat. Add onion and garlic and cook until soft and translucent, 3 to 4 minutes. Add ground pork and cook until browned, breaking up with a spoon while cooking, about 7 minutes. Mix in tomatoes, plantain, apple, peach, parsley, candied orange peel, pine nuts, raisins, almonds, cloves, salt, and pepper. Simmer until filling is cooked through and flavors are well combined, about 10 minutes."},{"recipe_directions":"Combine walnuts, milk, goat cheese, sugar, and cinnamon stick in a blender; blend until walnut sauce is smooth and creamy."},{"recipe_directions":"Fill each poblano chile with the pork filling and place on a plate. Spoon walnut sauce over chile and sprinkle with pomegranate seeds and parsley."},{"recipe_directions":"This is a great make-ahead dish — you can make the filling ahead of time, roast the chiles ahead of time, then whip up the sauce and assemble at the last minute."},{"recipe_directions":"You can use ready-ground cinnamon and cloves instead of grinding the whole spices yourself."},{"recipe_directions":"Instead of the candied orange peel, you can use Acitrón, a traditional Mexican candy that's made of crystallized biznaga cactus and used in many sweet and savory dishes."},{"recipe_directions":"Please note differences in ingredient amounts and total time when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"724\nCalories\n\n\n51g \nFat\n\n\n41g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641323-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9IBmwAeoGRfPdHbCfSjjmJGLXEc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4562465-4d9399e169264c7eac5839055b301245.jpg"
@@ -1703,59 +1952,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257535/birria-de-chivo-estilo-jalisco-mexican-braised-goat/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Birria de Chivo Estilo Jalisco (Mexican Braised Goat)</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n 4 hrs 20 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 13 hrs 5 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  ancho chile peppers\n\n\n1 cup white vinegar\n\n\n15  whole black peppercorns\n\n\n1 (1 inch) piece fresh ginger root\n\n\n2  garlic cloves, peeled\n\n\n3  whole cloves\n\n\n1 pinch dried marjoram\n\n\n1 pinch ground cumin\n\n\n1 pinch dried thyme\n\n\n4 ½ pounds goat leg"},{"recipe_ingredients":"2 pounds plum tomatoes\n\n\n2 cups water\n\n\n3  whole black peppercorns\n\n\n2  garlic cloves, peeled\n\n\n2  whole cloves\n\n\n1 pinch dried marjoram\n\n\n1 pinch dried thyme\n\n\n1 pinch ground cumin\n\n\n  salt to taste"},{"recipe_ingredients":"30  chiles de arbol\n\n\n¼ cup white vinegar\n\n\n10  whole black peppercorns\n\n\n1  clove garlic, peeled\n\n\n2  white onions, minced"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  ancho chile peppers\n\n\n1 cup white vinegar\n\n\n15  whole black peppercorns\n\n\n1 (1 inch) piece fresh ginger root\n\n\n2  garlic cloves, peeled\n\n\n3  whole cloves\n\n\n1 pinch dried marjoram\n\n\n1 pinch ground cumin\n\n\n1 pinch dried thyme\n\n\n4 ½ pounds goat leg'}, {'recipe_ingredients': '2 pounds plum tomatoes\n\n\n2 cups water\n\n\n3  whole black peppercorns\n\n\n2  garlic cloves, peeled\n\n\n2  whole cloves\n\n\n1 pinch dried marjoram\n\n\n1 pinch dried thyme\n\n\n1 pinch ground cumin\n\n\n  salt to taste'}, {'recipe_ingredients': '30  chiles de arbol\n\n\n¼ cup white vinegar\n\n\n10  whole black peppercorns\n\n\n1  clove garlic, peeled\n\n\n2  white onions, minced'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a pot of water to a boil; add ancho chile peppers and cook for 5 minutes. Remove from heat and let chiles soak in the hot water until soft, about 10 minutes; drain."},{"recipe_directions":"Blend softened chiles, 1 cup vinegar, 15 peppercorns, ginger, 2 garlic cloves, 3 cloves, 1 pinch marjoram, 1 pinch cumin, and 1 pinch thyme in a blender until marinade is smooth. Strain marinade into a bowl."},{"recipe_directions":"Place goat in a bowl and pour in marinade, coating goat completely. Cover and refrigerate for 8 hours."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Transfer goat and marinade to a baking dish; cover with a lid or aluminum foil."},{"recipe_directions":"Bake in the preheated oven until goat is very tender, about 3 1/2 hours. Remove lid or foil and cook until goat is browned, about 15 minutes. Pour meat juices into a container and reserve. Cover the goat to keep warm."},{"recipe_directions":"Bring a large pot of water to a boil; add tomatoes and boil until soft, 5 to 10 minutes. Drain and let tomatoes cool until easily handled."},{"recipe_directions":"Peel tomatoes and place in blender with reserved goat juices, 2 cups water, 3 peppercorns, 2 garlic cloves, 2 cloves, 1 pinch marjoram, 1 pinch thyme, and 1 pinch cumin. Blend until meat sauce is smooth."},{"recipe_directions":"Pour meat sauce into a small saucepan and season with salt; bring to a boil. Reduce heat and simmer over low heat."},{"recipe_directions":"Bring a pot of water to a boil; add chiles de arbol and boil until soft, about 5 minutes. Drain."},{"recipe_directions":"Blend softened chiles with 1/4 cup vinegar, 10 peppercorns, 1 garlic clove, and salt until hot sauce is smooth. Strain into a glass."},{"recipe_directions":"Cut goat into bite-sized pieces and serve with a generous amount of meat sauce and hot sauce on the side. Sprinkle onion over goat."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"341\nCalories\n\n\n3g \nFat\n\n\n38g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641330-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Gz1GsnZWQKF5K0UAxOTUF26EliA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2264124-arroz-rojo-mexican-red-rice-naples34102-4x3-1-492c3cb8ce1649f8a322c92a8427919d.jpg"
@@ -1769,59 +2014,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221433/arroz-rojo-mexican-red-rice/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Arroz Rojo (Mexican Red Rice)</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  Roma (plum tomatoes), cored\n\n\n2 tablespoons vegetable oil\n\n\n1 cup minced onion\n\n\n2 cloves garlic, minced\n\n\n1 cup uncooked long-grain white rice\n\n\n1 ¾ cups low-sodium chicken broth\n\n\n¼ cup canned tomato sauce\n\n\n1  jalapeno pepper, chopped\n\n\n2 sprigs fresh cilantro\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  Roma (plum tomatoes), cored\n\n\n2 tablespoons vegetable oil\n\n\n1 cup minced onion\n\n\n2 cloves garlic, minced\n\n\n1 cup uncooked long-grain white rice\n\n\n1 ¾ cups low-sodium chicken broth\n\n\n¼ cup canned tomato sauce\n\n\n1  jalapeno pepper, chopped\n\n\n2 sprigs fresh cilantro\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grate tomatoes into a bowl using a box grater; discard tomato skins."},{"recipe_directions":"Heat vegetable oil in a heavy skillet over medium-high heat. Add onion; cook and stir until tender, about 5 minutes. Stir in garlic and cook until fragrant, about 1 minute."},{"recipe_directions":"Stir in rice and cook, stirring often, until rice is lightly toasted, about 3 more minutes. Stir in grated tomato, chicken broth, and tomato sauce; bring mixture to a boil."},{"recipe_directions":"Stir in jalapeño pepper, cilantro, and salt; reduce heat to low. Cover the skillet and simmer until liquid has been absorbed, about 15 minutes. Do not lift the cover while rice is cooking."},{"recipe_directions":"Turn off the heat; let rice stand, covered, for 8 minutes. Fluff with a fork before transferring rice to a serving dish."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"},{"recipe_tags":"Spanish Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n6g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641335-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4Ca0sHPkNbDIMyZR8_f3CHga-ko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/4573359-original-mexican-flan-napolitano-gem-1x1-1-f43f7497504d49c9b5b90bd90331c21b.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260650/original-mexican-flan-napolitano/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Original Mexican Flan Napolitano</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (14 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (14 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sugar into a 9-inch ring mold and cook over medium-high heat, stirring constantly, until sugar melts and turns golden, about 10 minutes. Watch carefully for syrup to start to change color as it burns easily. Let caramel cool and harden, about 20 minutes."},{"recipe_directions":"Combine sweetened condensed milk, evaporated milk, eggs, cream cheese, and vanilla extract in a blender; blend until smooth, about 1 minute. Pour mixture over the hard caramel syrup in the tin and cover with aluminum foil. Pierce foil in the center hole of the ring with a knife; peel back foil, leaving hole uncovered for steam to circulate."},{"recipe_directions":"Place a metal rack inside a large pot over medium heat. Add water to almost reach the rack; bring to a boil. Place the mold on the rack, cover the pot, and steam until flan is set and firm, about 45 minutes. Unmold flan onto a serving plate and let cool before serving."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n14g \nFat\n\n\n26g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641339-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vwMigfDlU6XcEFqW0NeMkcYFgp0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/214814-Crispy-Flautas-Baking-Nana_795672_original-1x1-1-9d24e6b483044c6bb31bb2c26960323b.jpg"
@@ -1901,59 +2138,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214814/crispy-flautas/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Crispy Flautas</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n12 flautas"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n½  green bell pepper, chopped\n\n\n½  onion, finely diced\n\n\n1 pound skinless, boneless chicken breast, cut into 1-inch pieces\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n¾ cup water\n\n\n1 (10 ounce) package corn tortillas (such as Ortega®)\n\n\n½ cup shredded Cheddar cheese\n\n\n1 cup salsa\n\n\n24  toothpicks\n\n\n2 cups vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n½  green bell pepper, chopped\n\n\n½  onion, finely diced\n\n\n1 pound skinless, boneless chicken breast, cut into 1-inch pieces\n\n\n1 (1 ounce) package taco seasoning mix\n\n\n¾ cup water\n\n\n1 (10 ounce) package corn tortillas (such as Ortega®)\n\n\n½ cup shredded Cheddar cheese\n\n\n1 cup salsa\n\n\n24  toothpicks\n\n\n2 cups vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 teaspoon vegetable oil in a skillet over medium heat. Stir in the bell pepper and onion; cook and stir until the onion has softened and turned translucent, about 5 minutes. Increase heat to medium-high and stir in the chicken breast. Cook and stir until the chicken breast is no longer pink in the center, about 10 minutes. Shred the chicken using two forks. Stir in the taco seasoning and water. Simmer until the liquid has evaporated, stirring occasionally, about 10 minutes. Stir in the Cheddar cheese, then remove from heat, and set aside."},{"recipe_directions":"Lightly brush each corn tortilla will a layer of salsa. Spread about 2 tablespoons of the chicken mixture in a line along the bottom edge of the tortilla. Tightly roll the tortilla into a cylinder, and secure the ends with one or two toothpicks. Repeat with remaining tortillas."},{"recipe_directions":"Heat 2 cups vegetable oil in a large skillet to 375 degrees F (190 degrees C)."},{"recipe_directions":"Fry the flautas in the preheated oil, no more than 4 at a time, until golden and crisp, about 4 minutes. Drain the flautas on a paper towel-lined plate. Discard toothpicks and top finished flautas with remaining salsa."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."},{"recipe_directions":"Occasionally after filling all the tortillas you may find that you have some extra meat mixture left over. If you don't feel like opening another pack of tortillas, you can simply refrigerate the meat mixture. It keeps very well."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n14g \nFat\n\n\n28g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641343-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oUoLwAbu06FgBfhiOmEKh54N27c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/6363979_authentic-tacos-al-pastor_allrecipes-732be2e0ae9b48239095a48303d52c8f.jpg"
@@ -1965,59 +2198,55 @@
 Our 21 Best Authentic Mexican Recipes</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/best-authentic-mexican-recipes/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Our 21 Best Authentic Mexican Recipes</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"What makes a recipe an authentic Mexican recipe? Certainly, traditional ingredients and time-tested preparations make a recipe authentic. Of course, as time passes and cultures collide, cuisines evolve, transforming into fusion foods, modern takes on the traditional, which we also love (looking at you, Tex-Mex). But with this collection of Mexican recipes, we pay tribute to the originals, the tried and true, comforting, authentic Mexican food recipes that were built to last. These are just some of our favorites; for more, check out our collection of Authentic Mexican Recipes."},{"recipe_directions":"\"Mexican chorizo is a little different than its Spanish cousin, but equally delicious,\" says brandon. \"Use these sausages as you would any spicy sausage, or use the loose sausage meat to make tacos for a flavor-packed change from regular old ground pork. Freeze for up to three months.\""},{"recipe_directions":"\"These enchiladas are made with a fresh green salsa, just like you would find in a Mexican restaurant or better yet, in a Mexican home,\" says PattiVerde. Reviewer ROSA MARINA can confirm: \"I am Mexican, living in Mexico,\" she says. \"If you come to Mexico, this is what you will get if you order enchiladas in a restaurant. This is the REAL and authentic enchilada. When using tomatillos buy the smallest ones, because the bigger are bitter. I'm glad that people know how to make REAL enchiladas in the US.\""},{"recipe_directions":"Small pieces of flank steak are cooked in their juices, then mixed with pinto beans and crumbled crispy bacon. The recipe submitter Crema describes this authentic Mexican recipes as \"one of Guadalajara's favorites. It makes me feel at home!\""},{"recipe_directions":"Hot chiles and dark chocolate create a deeply flavorful, mildly spicy, authentic mole sauce perfect for topping stewed meats or enchiladas. \"FABULOUS recipe!\" raves DEWSHANE. \"Sauce was truly authentic with just the right amount of heat and SO much incredible flavor.\""},{"recipe_directions":"\"Inexpensive to make, and fully authentic, this menudo will have your Latin lovers swooning!\" says GUSTAVO6. \"This recipe uses a combination of chiles to deliver its trademark red color, and packs a mildly spicy punch. And it is really quite easy to make -- my husband absolutely devoured it the first time I made it.\""},{"recipe_directions":"Here's an authentic and flavorful beef taco recipe. \"Authentic Mexican birria tacos, Jalisco style, made with braised beef roast in a fragrant three-chile sauce with a delicious spice mix,\" says Crema."},{"recipe_directions":"\"These Mexican fritters are very common at fairs,\" says Delia. \"In my border hometown, the line at this stand is always overwhelming. People wait hours in line just to get a taste of these churros. I have run across several recipes but this is the best one by far.\""},{"recipe_directions":"\"In this true Mexican carne asada recipe, skirt steak is marinated in a cilantro-beer sauce and grilled (asada) to perfection,\" says Crema. \"Serve with a side of drunken beans and corn tortillas. If preferred, substitute flank steak for the skirt steak.\""},{"recipe_directions":"Here's a fresh and delicious Mexican ceviche. \"An easy no-cook, make-ahead starter or nibble,\" says Crema. \"Serve with tortilla chips, avocado, lime wedges, and salt to garnish.\""},{"recipe_directions":"\"These sweet tamales with orange, almonds, and raisins are eaten as a dessert in Mexico,\" says AnaMaría. \"Try to find extra sweet ripe oranges for the best flavor.\""},{"recipe_directions":"Corn tortillas are filled with shredded chicken and baked in a creamy green tomatillo sauce. \"The 'suizas' sauce is Spanish for 'Swiss,' a nod to its creaminess,\" says Crema."},{"recipe_directions":"\"This was my husband's favorite breakfast growing up in a Mexican household,\" says SHELLSHOCK. \"Now we make it all times of day and even our kids always ask for seconds. Very simple, inexpensive, and quick to make. I sometimes add hot pepper sauce, or ingredients you would like in a omelet, but my husband prefers it the traditional way.\""},{"recipe_directions":"\"This easy Mexican guacamole with corn (guacamole con elote) and tomatoes tastes great with corn chips,\" says Ana Maria Gonzalez. \"As with all guacamole recipes, make sure you are using ripe avocados.\""},{"recipe_directions":"These authentic homemade tamales are stuffed with a homemade chicken and masa filling made with tomatillos and two types of chile pepper (ancho and mulato). \"This authentic homemade tamales recipe comes from the Mexican region Oaxaca,\" says mega."},{"recipe_directions":"Anaheim chile peppers are stuffed with Mexican cheese, rolled in flour and beaten egg, and then pan-fried until golden brown. Recipe submitter Kentucky Guera says, \"This is an authentic Mexican recipe that has been handed down for generations in my family.\""},{"recipe_directions":"Cochinita Pibil is a traditional Mexican version of pulled pork. \"This cochinita pibil recipe is straight from Mexico,\" says Chef Gaby Cervello. \"Pork shoulder is cooked in a spicy red annatto paste and orange juice sauce, then shredded and served with habanero sauce.\""},{"recipe_directions":"\"This traditional Mexican dish is from the area of Puebla,\" says mega2408. \"Poblano chiles are stuffed with a flavorful ground pork stuffing, then covered in a creamy walnut sauce and garnished with pomegranate seeds and parsley. The long list of ingredients is deceiving -- this make ahead dish is quite easy once you have all your ingredients!\""},{"recipe_directions":"\"To make this authentic Mexican hot chocolate, you need Mexican hot chocolate tablets or squares which gives it its unique taste,\" says Crema. \"Eat the chile only if you can handle it!\""},{"recipe_directions":"\"A yummy variation on traditional Mexican green rice (arroz verde) with Chihuahua cheese and crema so the rice becomes super creamy and cheesy,\" says Paloma Alamán."},{"recipe_directions":"'These are typical flavors of Southeast Mexico,\" says Chef Gaby Cervello. \"White fish fillets and shrimp are marinated with achiote, orange juice, lemon, and spices, baked in the oven, and served with habanero sauce and red onion. You can use any white fish fillets.\""},{"recipe_directions":"A quintessential Mexican dish, pork loin is marinated in a savory and aromatic chipotle chile, vinegar, and fresh pineapple sauce, and then grilled and coarsely chopped. Serve with warm corn tortillas, tomatillos salsa, and lemon or lime wedges."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Authentic"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641349-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WEWHhvpWvfRDWlB3ZPTDmkj0eNI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/7496443_Shrimp-Tostadas_Bibi_4x3-3b00786f6bc54d269593767db03307f1.jpg"
@@ -2031,59 +2260,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/shrimp-tostadas-recipe-7496443</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Shrimp Tostadas</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1/2 cup mayonnaise\n\n\n2 chipotle peppers in adobo sauce, minced\n\n\n1/3 cup freshly-squeezed lime juice\n\n\n1 tablespoon honey\n\n\n1 tablespoon avocado oil\n\n\n1 teaspoon ground cumin\n\n\n1/4 teaspoon salt, or to taste\n\n\n1 (8 ounce) package shredded cabbage"},{"recipe_ingredients":"1 cup water\n\n\n1 teaspoon bouillon (such as Better Than Bouillon Sofrito Base®)\n\n\n1/4 teaspoon cayenne pepper\n\n\n24 raw shrimp (frozen or fresh), peeled and deveined"},{"recipe_ingredients":"1 (15 ounce) can refried black beans\n\n\n1/2 teaspoon smoked paprika\n\n\n1/2 teaspoon ground cumin\n\n\n1/4 teaspoon garlic granules\n\n\n8 (6-inch) tostada shells\n\n\n4 ounces queso fresco, crumbled\n\n\n1 bunch cilantro, chopped\n\n\n1/2 cup Mexican-style crema\n\n\n8 lime slices"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1/2 cup mayonnaise\n\n\n2 chipotle peppers in adobo sauce, minced\n\n\n1/3 cup freshly-squeezed lime juice\n\n\n1 tablespoon honey\n\n\n1 tablespoon avocado oil\n\n\n1 teaspoon ground cumin\n\n\n1/4 teaspoon salt, or to taste\n\n\n1 (8 ounce) package shredded cabbage'}, {'recipe_ingredients': '1 cup water\n\n\n1 teaspoon bouillon (such as Better Than Bouillon Sofrito Base®)\n\n\n1/4 teaspoon cayenne pepper\n\n\n24 raw shrimp (frozen or fresh), peeled and deveined'}, {'recipe_ingredients': '1 (15 ounce) can refried black beans\n\n\n1/2 teaspoon smoked paprika\n\n\n1/2 teaspoon ground cumin\n\n\n1/4 teaspoon garlic granules\n\n\n8 (6-inch) tostada shells\n\n\n4 ounces queso fresco, crumbled\n\n\n1 bunch cilantro, chopped\n\n\n1/2 cup Mexican-style crema\n\n\n8 lime slices'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine mayonnaise, minced chipotle peppers, lime juice, honey, avocado oil, 1 teaspoon cumin, and salt to taste for the slaw in a large bowl. Stir until well blended. Add shredded cabbage and toss to coat. Refrigerate until ready to use."},{"recipe_directions":"Combine water, sofrito base, and cayenne pepper in a large skillet for the slaw. Bring to a boil over medium heat. Add shrimp to the boiling liquid, bring back to a boil, and cook until shrimp turn white and peachy-pink, and make a “C” shape, 3 to 5 minutes. Using a slotted spoon or spider, remove shrimp from the cooking liquid immediately."},{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the broiler. Line a baking tray with aluminum foil."},{"recipe_directions":"Stir refried beans, smoked paprika, 1/2 teaspoon cumin, and garlic granules together in a bowl for the tostadas. Spread each tostada shell with bean mixture, 1 to 2 tablespoons per tostada, or to taste. Sprinkle queso fresco crumbles evenly on each tostada. Place tostadas on the prepared baking tray in a single layer."},{"recipe_directions":"Broil under the preheated broiler until cheese begins to melt, 1 to 2 minutes. Watch that tostada shells do not burn."},{"recipe_directions":"Place about 1/2 cup of the prepared slaw on each tostada. Top with chopped cilantro to taste. Add three shrimp per tostada, and drizzle crema over all. Serve with lime slices, if desired."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Authentic"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"639\nCalories\n\n\n47g \nFat\n\n\n42g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641353-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0jjNrUzEBbOS9ABCbECkxsBg4yA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2254689-12f7505ee20f4ccdb7f365e86b48247b.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217410/barbacoa/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Barbacoa</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 6 hrs 10 mins\n\n\nAdditional Time:\n 10 hrs\n\n\nTotal Time:\n 16 hrs 40 mins\n\n\nServings:\n24 \n\n\nYield:\n12 cups"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  dried guajillo chilies\n\n\n2 teaspoons cumin seeds\n\n\n⅛  whole cloves\n\n\n1 cup boiling water\n\n\n½ teaspoon ground ancho chile powder\n\n\n1 large onion, quartered\n\n\n6 cloves garlic\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon ground thyme\n\n\n⅓ cup apple cider vinegar\n\n\n2 teaspoons lime juice\n\n\n1 (6 pound) boneless beef chuck roast\n\n\n2  bay leaves"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  dried guajillo chilies\n\n\n2 teaspoons cumin seeds\n\n\n⅛  whole cloves\n\n\n1 cup boiling water\n\n\n½ teaspoon ground ancho chile powder\n\n\n1 large onion, quartered\n\n\n6 cloves garlic\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon ground thyme\n\n\n⅓ cup apple cider vinegar\n\n\n2 teaspoons lime juice\n\n\n1 (6 pound) boneless beef chuck roast\n\n\n2  bay leaves'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a heavy skillet over medium heat. Place the dried guajillo chiles into the skillet and cook, turning occasionally, until the color changes and the chiles have puffed, about 5 minutes. Set the chiles aside to cool for a moment. Meanwhile, toast the cumin and cloves in the hot skillet until the cumin seeds begin to pop; remove from the pan and set aside. Remove and discard the stems, seeds, and veins of the chiles, and place into a small bowl. Pour the boiling water over top, and cover. Let the chiles soak for 1 hour."},{"recipe_directions":"Grind the toasted cumin and cloves into a powder, and place into a blender. Add the ancho chile powder, onion, garlic, oregano, thyme, vinegar, and lime juice. Remove the chiles from the soaking water, and place into the blender along with 1/3 cup of the soaking liquid. Cover, and blend until a smooth paste forms."},{"recipe_directions":"Place the beef roast into a mixing bowl, and pour the guajillo chile past over top. Coat the roast on all sides with the paste, then cover the bowl with plastic wrap. Marinate in the refrigerator overnight."},{"recipe_directions":"Preheat an oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Transfer the roast and marinade to a roasting pan, and arrange the bay leaves over top. Cover tightly with aluminum foil. Bake in the preheated oven until the meat is very tender and is easily pulled apart with a fork, about 6 hours. Let stand, covered, at room temperature for 1 hour before discarding the bay leaves and shredding with two forks."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n13g \nFat\n\n\n1g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641357-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VuM7uqL6qc95Q562R-tmoZkIti0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/681074-888a5b8f52064e3aa69e7edcc97c0d2b.jpg"
@@ -2161,59 +2382,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217165/carne-con-chile/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Carne con Chile</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"20  fresh tomatillos, husks removed\n\n\n2 large tomatoes, chopped\n\n\n7 serrano chile peppers, chopped\n\n\n10 fresh chile de arbol peppers, chopped\n\n\n5 cloves garlic, divided\n\n\n  salt to taste\n\n\n2 pounds pork stew meat, coarsely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20  fresh tomatillos, husks removed\n\n\n2 large tomatoes, chopped\n\n\n7 serrano chile peppers, chopped\n\n\n10 fresh chile de arbol peppers, chopped\n\n\n5 cloves garlic, divided\n\n\n  salt to taste\n\n\n2 pounds pork stew meat, coarsely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook tomatillos, tomatoes, serrano peppers, chile de arbol peppers, and 3 whole garlic cloves in a saucepan over medium-low heat until mixture is juicy and peppers are tender, about 10 minutes. Remove and discard garlic cloves."},{"recipe_directions":"Pour mixture into a blender and blend until smooth, about 1 minute. Mince 1 garlic clove and mix into sauce. Season with salt and set aside."},{"recipe_directions":"Mince remaining garlic clove and place into a skillet. Add pork, cover the skillet, and cook over medium heat, stirring occasionally, until pork is no longer pink and the juices run clear, stirring often, about 30 minutes. Pour blended tomatillo sauce into the skillet, reduce the heat, and simmer, stirring often, until pork is tender, 5 to 10 more minutes. An instant-read thermometer inserted into the pork should read at least 145 degrees F (63 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"614\nCalories\n\n\n36g \nFat\n\n\n26g \nCarbs\n\n\n49g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641363-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VfIBfFRwVloRy3CNSDuVmGlBBk0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8606223-rajas-con-crema-elote-y-queso-creamy-poblano-peppers-and-sweet-corn-leticiasolis1978-4x3-1-2266a4e21c4b43e3904d2688f7bed6c8.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257536/rajas-con-crema-elote-y-queso-creamy-poblano-peppers-and-sweet-corn/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Rajas con Crema, Elote, y Queso (Creamy Poblano Peppers and Sweet Corn)</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  poblano peppers\n\n\n2 tablespoons vegetable oil, divided\n\n\n1 ear fresh corn, kernels cut off\n\n\n1 tablespoon butter\n\n\n1 small onion, sliced\n\n\n2 teaspoons chicken bouillon granules\n\n\n½ cup heavy whipping cream\n\n\n4 ½ ounces Mexican Manchego cheese, grated"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  poblano peppers\n\n\n2 tablespoons vegetable oil, divided\n\n\n1 ear fresh corn, kernels cut off\n\n\n1 tablespoon butter\n\n\n1 small onion, sliced\n\n\n2 teaspoons chicken bouillon granules\n\n\n½ cup heavy whipping cream\n\n\n4 ½ ounces Mexican Manchego cheese, grated'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 500 degrees F (260 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Place poblano peppers onto the prepared baking sheet; brush peppers with 1 tablespoon vegetable oil."},{"recipe_directions":"Roast in the preheated oven for 20 minutes, then flip and continue roasting until the skin is charred and the flesh is soft, about 20 more minutes."},{"recipe_directions":"Transfer roasted peppers to a bowl and cover with plastic wrap; let steam for 10 to 15 minutes."},{"recipe_directions":"While the peppers are steaming, bring a pot of water to a boil. Add corn kernels and cook until soft, about 10 minutes. Drain."},{"recipe_directions":"Carefully remove plastic wrap from the pepper bowl. Peel and discard pepper skins; remove seeds and stems. Cut peppers into strips."},{"recipe_directions":"Heat butter and remaining 1 tablespoon vegetable oil in a saucepan over medium heat. Add onion; cook and stir until soft, 5 to 10 minutes. Add pepper strips, corn, and bouillon granules; cook for 3 minutes. Reduce the heat to medium-low and stir in cream and Manchego cheese. Simmer until cheese melts, about 5 minutes."},{"recipe_directions":"Mexican Manchego is very different than Spanish Manchego. You can use Chihuahua cheese, another Mexican variety, or a mild Cheddar if you're in a pinch."},{"recipe_directions":"The poblano peppers can also be cooked over a gas flame on the stovetop. Turn your burner to medium and use tongs to arrange the peppers over the flame. Roast until the skin is charred on all sides, turning the peppers with the tongs, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Corn"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"347\nCalories\n\n\n29g \nFat\n\n\n13g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641366-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ALvnibYyi6niwFMjvaa7TvuiKa4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/8504469-1290088e1f3c4e73afa7c28346b06da3.jpg"
@@ -2292,59 +2505,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265085/arroz-con-leche-mexican-rice-pudding/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Arroz con Leche (Mexican Rice Pudding)</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups water\n\n\n½  cinnamon stick\n\n\n2 ¼ cups uncooked white rice\n\n\n4 cups whole milk\n\n\n4 cups evaporated milk\n\n\n1 ¼ cups white sugar\n\n\n2 pinches ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups water\n\n\n½  cinnamon stick\n\n\n2 ¼ cups uncooked white rice\n\n\n4 cups whole milk\n\n\n4 cups evaporated milk\n\n\n1 ¼ cups white sugar\n\n\n2 pinches ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water and cinnamon stick in a saucepan over high heat. Bring to a boil and cook until cinnamon releases its color and flavor, about 5 minutes. Add rice, reduce heat to low, cover, and cook until rice is tender and water is absorbed, about 20 minutes."},{"recipe_directions":"Gradually add whole milk to rice, then evaporated milk. Stir in sugar. Cook uncovered until sugar is dissolved and mixture has thickened, about 10 minutes."},{"recipe_directions":"Serve warm or cold. Sprinkle each portion with ground cinnamon."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"443\nCalories\n\n\n11g \nFat\n\n\n73g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641371-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XJPT5yfB4bVYLbyfiyEhaAL4Wfk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4513747-33c2f3be620a4eee9406fb96c18602e5.jpg"
@@ -2357,59 +2566,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/59900/authentic-enchiladas-verdes/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Authentic Enchiladas Verdes</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  bone-in chicken breast halves\n\n\n2 cups chicken broth\n\n\n½  white onion, halved, divided\n\n\n2 teaspoons salt\n\n\n2 cloves garlic, divided\n\n\n1 pound fresh tomatillos, husks removed\n\n\n5 serrano peppers, or to taste\n\n\n1 pinch salt\n\n\n¼ cup vegetable oil\n\n\n12  corn tortillas\n\n\n1 cup crumbled queso fresco\n\n\n½  white onion, chopped\n\n\n1 bunch fresh cilantro, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  bone-in chicken breast halves\n\n\n2 cups chicken broth\n\n\n½  white onion, halved, divided\n\n\n2 teaspoons salt\n\n\n2 cloves garlic, divided\n\n\n1 pound fresh tomatillos, husks removed\n\n\n5 serrano peppers, or to taste\n\n\n1 pinch salt\n\n\n¼ cup vegetable oil\n\n\n12  corn tortillas\n\n\n1 cup crumbled queso fresco\n\n\n½  white onion, chopped\n\n\n1 bunch fresh cilantro, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken, broth, one quarter onion, salt, and 1 clove garlic in a medium saucepan; bring to a boil. Cook until chicken is no longer pink in the center and the juices run clear, about 20 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C). Remove chicken to a large bowl to cool. Reserve broth; discard onion and garlic. When cool enough to handle, shred chicken with your hands."},{"recipe_directions":"Place tomatillos and serrano peppers in a medium pot and cover with water. Bring to a boil and cook until tomatillos turn from bright green to dull, army green. Strain tomatillos and peppers and place in a blender. Add remaining one quarter onion, remaining 1 clove garlic, and a pinch of salt. Pour in enough reserved broth to cover vegetables in the blender by about 1 inch. Blend until completely puréed. Pour salsa into a medium saucepan and bring to a low boil."},{"recipe_directions":"Heat oil in a small frying pan over medium-high heat until very hot. Lightly fry tortillas, one at time, in hot oil. Remove to paper towels to drain."},{"recipe_directions":"Dip tortillas in low-boiling salsa until they become soft again. Place onto plates, 3 per person. Fill or cover tortillas with shredded chicken, then top with salsa. Sprinkle with queso fresco, onion, and cilantro."},{"recipe_directions":"Remove the seeds and veins from the serrano peppers if you want to tone down the heat."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Enchilada Recipes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"559\nCalories\n\n\n25g \nFat\n\n\n49g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641374-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Og9JWxlXXR_iznyvIGrqnQ_oKW8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1042254-b6fe3db90f8a48f19bd1502d024e418f.jpg"
@@ -2422,59 +2627,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214191/colorado-green-chili-chile-verde/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Colorado Green Chili (Chile Verde)</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 ½ pounds cubed pork stew meat\n\n\n  salt and pepper to taste\n\n\n1 large yellow onion, diced\n\n\n4 cloves garlic, minced\n\n\n5 cups chicken broth\n\n\n2 cups chopped, roasted green chiles\n\n\n1 (14.5 ounce) can diced tomatoes with juice\n\n\n1 ½ cups tomatillo salsa\n\n\n½ teaspoon dried oregano\n\n\n1 pinch ground cloves"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 ½ pounds cubed pork stew meat\n\n\n  salt and pepper to taste\n\n\n1 large yellow onion, diced\n\n\n4 cloves garlic, minced\n\n\n5 cups chicken broth\n\n\n2 cups chopped, roasted green chiles\n\n\n1 (14.5 ounce) can diced tomatoes with juice\n\n\n1 ½ cups tomatillo salsa\n\n\n½ teaspoon dried oregano\n\n\n1 pinch ground cloves'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a Dutch oven or large pot over medium-high heat. Season pork with salt and pepper, then cook in hot oil until golden brown on all sides, about 7 minutes. Transfer pork to a plate."},{"recipe_directions":"Reduce the heat to medium; stir in onion and garlic. Cook and stir until onion has softened and turned translucent, about 5 minutes. Return pork to the pot; stir in chicken broth, green chiles, diced tomatoes with juice, and tomatillo salsa. Season with oregano and ground cloves. Bring to a simmer over medium-high heat, then reduce the heat to medium-low, cover, and simmer for 20 minutes."},{"recipe_directions":"After 20 minutes, transfer 2 cups of soup (without any pork pieces) to a blender. Hold down the lid of the blender with a folded kitchen towel, and carefully start the blender, using a few quick pulses to get the soup moving before leaving it on to purée. Purée until smooth, then pour back into the cooking pot. This will create a thicker texture for your chili and will eliminate some of the chunky bits of chiles. Continue to simmer, stirring occasionally, until pork is very tender, at least 35 minutes more."},{"recipe_directions":"Please note the differences in ingredient amounts, as well as the adaptation of using an Instant Pot when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Pork Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"323\nCalories\n\n\n19g \nFat\n\n\n12g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641378-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZGd6zeTZSZRWCkW6pu1RGRQccCg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1324x0:1326x2):format(webp)/9151161-d4add2844cbd41f2b576149dc699a049.jpg"
@@ -2487,59 +2688,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264648/best-ever-carne-asada-marinade/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Best Ever Carne Asada Marinade</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup soy sauce\n\n\n½ cup olive oil\n\n\n½ cup red wine vinegar\n\n\n½  orange, sliced\n\n\n⅓ cup lime juice\n\n\n⅓ cup orange juice\n\n\n¼ cup Worcestershire sauce\n\n\n¼ bunch cilantro, stems cut off and leaves chopped\n\n\n2 tablespoons minced garlic\n\n\n1 tablespoon coarsely ground black pepper\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon dried Mexican oregano\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup soy sauce\n\n\n½ cup olive oil\n\n\n½ cup red wine vinegar\n\n\n½  orange, sliced\n\n\n⅓ cup lime juice\n\n\n⅓ cup orange juice\n\n\n¼ cup Worcestershire sauce\n\n\n¼ bunch cilantro, stems cut off and leaves chopped\n\n\n2 tablespoons minced garlic\n\n\n1 tablespoon coarsely ground black pepper\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon chili powder\n\n\n1 tablespoon dried Mexican oregano\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine soy sauce, olive oil, vinegar, orange slices, lime juice, orange juice, Worcestershire sauce, cilantro, garlic, black pepper, cumin, chili powder, oregano, and salt in a large bowl and whisk to combine."},{"recipe_directions":"Place meat into a gallon-sized freezer bag or the bottom of a shallow baking dish. Pour marinade on top of beef. Close the bag or cover the dish, then marinate for at least 1 hour before grilling."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Marinade Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"65\nCalories\n\n\n6g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641384-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vydorLbu2ZCjiMZk-YG2ffHsAvo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6626632-sopa-de-tortilla-real-mexican-tortilla-soup-Elizabeth-Vergara-4x3-1-a667444e50e346598c0b00bf4ba96054.jpg"
@@ -2553,59 +2750,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259300/sopa-de-tortilla-real-mexican-tortilla-soup/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Sopa de Tortilla (Mexican Tortilla Soup)</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup vegetable oil, or as needed\n\n\n12 (6 inch) corn tortillas, cut into strips\n\n\n3  dried pasilla chile peppers, seeded\n\n\n2  tomatoes, seeded and chopped\n\n\n½ large onion, chopped\n\n\n1 clove garlic\n\n\n¼ teaspoon dried oregano\n\n\n1 teaspoon vegetable oil\n\n\n4 cups water\n\n\n4 teaspoons chicken bouillon granules\n\n\n1 sprig fresh parsley\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¾ cup diced cotija cheese\n\n\n2 tablespoons crema fresca (fresh cream) (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup vegetable oil, or as needed\n\n\n12 (6 inch) corn tortillas, cut into strips\n\n\n3  dried pasilla chile peppers, seeded\n\n\n2  tomatoes, seeded and chopped\n\n\n½ large onion, chopped\n\n\n1 clove garlic\n\n\n¼ teaspoon dried oregano\n\n\n1 teaspoon vegetable oil\n\n\n4 cups water\n\n\n4 teaspoons chicken bouillon granules\n\n\n1 sprig fresh parsley\n\n\n1  avocado - peeled, pitted, and diced\n\n\n¾ cup diced cotija cheese\n\n\n2 tablespoons crema fresca (fresh cream) (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 cup oil in a large pan or wok over medium-high heat. Add tortilla strips in batches and fry until brown and crispy, 2 to 3 minutes per batch. Drain on paper towels."},{"recipe_directions":"Fry pasilla chiles in the same pan until browned, about 2 minutes, being careful not to burn them. Drain on paper towels."},{"recipe_directions":"Transfer one fried pasilla pepper to a blender. Add tomatoes, onion, garlic, and oregano; blend until smooth. Strain through a sieve into a bowl."},{"recipe_directions":"Heat 1 teaspoon oil in a saucepan over medium heat. Add blended tomato mixture and cook for 2 minutes. Pour in water and bring to a boil. Stir in bouillon granules and parsley. Reduce the heat to low, cover, and simmer until flavors are well combined, about 15 minutes. Remove from the heat and discard parsley."},{"recipe_directions":"Divide fried tortilla strips among four bowls. Ladle soup over tortilla strips and garnish with diced avocado and cotija cheese. Cut remaining fried pasilla peppers into thin strips and sprinkle over soup. Add a dollop crema to each bowl."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Tortilla Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"944\nCalories\n\n\n80g \nFat\n\n\n52g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641389-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oiLjmvzTJaOgnrbMtIkS6wwr4n4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/698318-fbdf3bf64e0343098e11f0cb26275edd.jpg"
@@ -2618,59 +2811,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213707/calabacitas-con-elote-zucchini-with-corn/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Calabacitas con Elote (Zucchini with Corn)</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups fresh corn kernels\n\n\n1 tablespoon olive oil\n\n\n¼ cup chopped onion\n\n\n1 clove garlic, minced\n\n\n1 pound zucchini, sliced\n\n\n3 medium roma (plum) tomatoes, chopped\n\n\n1 medium fresh poblano chile pepper - seeded, deveined, and chopped\n\n\n  salt and black pepper to taste\n\n\n¼ cup crumbled cotija cheese"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups fresh corn kernels\n\n\n1 tablespoon olive oil\n\n\n¼ cup chopped onion\n\n\n1 clove garlic, minced\n\n\n1 pound zucchini, sliced\n\n\n3 medium roma (plum) tomatoes, chopped\n\n\n1 medium fresh poblano chile pepper - seeded, deveined, and chopped\n\n\n  salt and black pepper to taste\n\n\n¼ cup crumbled cotija cheese'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corn into a saucepan and cover with water; bring to a boil. Reduce the heat to medium, cover, and cook until tender, about 10 minutes. Drain."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Add onion and garlic; cook and stir until onion is translucent, about 5 minutes. Add zucchini and tomatoes; cook and stir for 5 minutes. Stir in corn kernels, poblano pepper, salt, and pepper; cover and cook until zucchini is tender, about 10 minutes. Sprinkle with cotija cheese and serve."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n5g \nFat\n\n\n18g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641396-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fwPARTklh1ctOkr33Xxu7e1awNw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1047x0:1049x2):format(webp)/5820876-e980d6d2e0f8477c82fa95ec1518ada0.jpg"
@@ -2683,59 +2872,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213710/rajas-poblanas-poblano-strips/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Rajas Poblanas (Poblano Strips)</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup Mexican crema, crema fresca\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 tablespoon chicken bouillon granules\n\n\n5  poblano peppers\n\n\n1 tablespoon vegetable oil\n\n\n1  onions, thickly sliced\n\n\n1 cup drained canned corn kernels"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup Mexican crema, crema fresca\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 tablespoon chicken bouillon granules\n\n\n5  poblano peppers\n\n\n1 tablespoon vegetable oil\n\n\n1  onions, thickly sliced\n\n\n1 cup drained canned corn kernels'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend the crema, cream cheese, and chicken bouillon in a blender until smooth; set aside."},{"recipe_directions":"Place the peppers on a large griddle over medium-high heat. Roast until the skin blisters and turns black. Remove peppers from griddle and place in a plastic bag, allowing them to sweat for 5 minutes. Transfer to a plate to cool. Peel and discard the outer skin of the peppers; halve length-wise and remove the seeds and veins. Slice into thick strips. Set aside."},{"recipe_directions":"Heat the vegetable oil in a large saucepan over medium-high heat; cook the onion in the hot oil until tender, about 5 minutes. Stir the corn into the onions, reduce the heat to medium, and cook another 5 minutes. Add the poblano strips to the saucepan. Pour the cream mixture over the vegetables and bring to a simmer; cook at a simmer until hot, about 5 minutes more."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"416\nCalories\n\n\n35g \nFat\n\n\n22g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641399-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_kL40ddFKx9jZwo1gsbC07c5Eew=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7299735-34f9f7f2de3648278bcb003cf82e1236.jpg"
@@ -2748,59 +2933,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261634/poblano-and-cheese-tamales-tamales-de-rajas-con-queso/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Poblano and Cheese Tamales (Tamales de Rajas con Queso)</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 3 hrs 25 mins\n\n\nServings:\n24 \n\n\nYield:\n24 tamales"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"corn husks\n\n\n10 ounces poblano peppers\n\n\n1 ¼ pounds fresh tomatillos, husks removed\n\n\n11 ounces lard, divided\n\n\n1  onion, chopped\n\n\n  salt and ground black pepper to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n4 ½ cups masa harina\n\n\n2 teaspoons baking powder\n\n\n1 ¾ cups chicken broth, or as needed\n\n\n2 ½ cups sliced Monterey Jack cheese"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'corn husks\n\n\n10 ounces poblano peppers\n\n\n1 ¼ pounds fresh tomatillos, husks removed\n\n\n11 ounces lard, divided\n\n\n1  onion, chopped\n\n\n  salt and ground black pepper to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n4 ½ cups masa harina\n\n\n2 teaspoons baking powder\n\n\n1 ¾ cups chicken broth, or as needed\n\n\n2 ½ cups sliced Monterey Jack cheese'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corn husks in a large bowl and cover with boiling water. Allow to soak for 30 to 60 minutes. Drain, place husks on a work surface, and cover with a clean, damp towel."},{"recipe_directions":"While husks are soaking, line a heavy cast iron grill pan or griddle with aluminum foil and place it over high heat. Arrange poblano peppers in a single layer over foil. Grill until peppers are blackened, turning as necessary, 3 to 5 minutes. Transfer to a resealable plastic bag and let them steam, 10 to 15 minutes. Peel off skins and remove seeds. Cut into strips and set aside."},{"recipe_directions":"Place tomatillos in a medium pot and cover with water; bring to a boil. Cook until tomatillos change color, about 5 minutes. Drain, place in a blender, and blend until smooth. Set sauce aside."},{"recipe_directions":"Heat 1 tablespoon lard in a large pot over medium heat. Cook and stir onion in hot lard until soft and translucent, about 5 minutes. Add blended tomatillos; season with salt and pepper. Bring to a boil, reduce heat, and simmer until flavors are well combined, about 5 minutes. Add poblano pepper strips and cilantro; cook at a boil for 5 minutes. Remove from heat and allow to cool, about 10 minutes."},{"recipe_directions":"Beat remaining lard in a large bowl with an electric mixer until creamy. Season with salt and continue beating for a few minutes. Beat in masa harina and baking powder until well combined. Mix in broth, 1/4 cup at a time, until dough has a smooth and workable consistency that is not too wet, similar to cookie dough. Test if masa mixture is ready by dropping a small ball of masa into a glass of cold water; if it floats, it's ready; if not, keep working dough a little longer."},{"recipe_directions":"Select 1 wide corn husk or 2 small ones. Spread about 2 tablespoons masa mixture onto corn husk, filling it 2 inches from the bottom and 1/4 inch from the top. Add 1 tablespoon tomatillo sauce and a Monterey Jack cheese slice in the center of masa mixture. Fold the sides of husk together, one over the other. Fold the bottom of the husk over the seam of the 2 folded sides. Repeat with remaining husks."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Place tamales, open-side up, into the insert. Cover and steam until filling is heated through and separates from husk, about 1 hour 15 minutes. Let tamales rest for 15 minutes before serving."},{"recipe_directions":"In Mexico, people use Chihuahua cheese or Oaxaca cheese for these tamales. If you can find them, use them."},{"recipe_directions":"When boiling the tomatillos, make sure that they don't break open. Otherwise, they get very bitter."},{"recipe_directions":"You can also cook tamales in a pressure cooker. The cooking time will only be 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"252\nCalories\n\n\n18g \nFat\n\n\n19g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641405-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EUgVd6nl1Nung0lsOc4hAddoYkY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/235756-easy-mexican-sopes-1x1-705-copy-5d9d475342d14d77b41e892c35e94476.jpg"
@@ -2814,59 +2995,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235756/easy-mexican-sopes/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Easy Mexican Sopes</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 sopes"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups masa harina\n\n\n1 tablespoon salt\n\n\n2 cups warm water, or as needed\n\n\n1 quart oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups masa harina\n\n\n1 tablespoon salt\n\n\n2 cups warm water, or as needed\n\n\n1 quart oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk masa harina and salt together in a bowl. Stir in enough water until dough is smooth and holds together."},{"recipe_directions":"Form dough into twelve 2-inch balls. Place balls onto parchment paper and flatten to 1/2-inch thick circles."},{"recipe_directions":"Heat oil in a deep fryer or large saucepan to 400 degrees F (200 degrees C)."},{"recipe_directions":"Working in batches, fry a few sopes at a time until lightly browned, about 30 seconds per side. Transfer with tongs to a paper towel-lined plate and let cool just until they can be handled, 2 to 3 minutes. Pinch the edges of each sope together to form a little boat."},{"recipe_directions":"Return sopes to the hot oil and fry until golden and cooked through, 1 to 2 more minutes. Drain on paper towels."},{"recipe_directions":"You can use warm broth instead of warm water if desired."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n8g \nFat\n\n\n22g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641408-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Icz51T1ueklRHaoH7zTpADsPyHk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Agua-de-Jamaica-Iced-Hibiscus-Tea-Tammy-Lynn-1x1-1-2000-7f99b1ed08aa4f6397a2113e6c9bf972.jpg"
@@ -2880,59 +3057,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214366/agua-de-jamaica-hibiscus-water/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Agua de Jamaica (Iced Hibiscus Tea)</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n16 \n\n\nYield:\n1 gallon"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n2 cups dried hibiscus petals\n\n\n1  cinnamon stick\n\n\n1 pinch ground cloves\n\n\n1 pinch ground nutmeg\n\n\n1 pinch ground allspice\n\n\n½ cup chopped piloncillo (Mexican brown sugar cones)\n\n\n1 ½ cups white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n2 cups dried hibiscus petals\n\n\n1  cinnamon stick\n\n\n1 pinch ground cloves\n\n\n1 pinch ground nutmeg\n\n\n1 pinch ground allspice\n\n\n½ cup chopped piloncillo (Mexican brown sugar cones)\n\n\n1 ½ cups white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 6 cups of water in a large saucepan; bring to a boil. Stir in the hibiscus petals, cinnamon, cloves, nutmeg, and allspice. Reduce heat to medium-low, and gently simmer until the water has turned a deep red, 30 to 45 minutes."},{"recipe_directions":"Stir the chopped piloncillo into the hibiscus water until dissolved, then set aside to cool 15 minutes. After cooling, strain the warm liquid into a 1 gallon pitcher through a wire mesh strainer. Squeeze as much liquid from the petals as you can, then discard the petals. Stir in the white sugar until dissolved, then pour in enough cold water to fill the pitcher. Serve immediately or let stand overnight for best taste."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"97\nCalories\n\n\n25g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641415-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3h-2GzC6UR5Nou03LHQHlmNf0JE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5366422-baked-corn-tortilla-strips-for-mexican-soups-Buckwheat-Queen-4x3-1-aa2e08f727d04c4ead40b062156683bf.jpg"
@@ -2946,59 +3119,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262292/baked-corn-tortilla-strips-for-mexican-soups/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Baked Corn Tortilla Strips for Mexican Soups</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 (6 inch) corn tortillas\n\n\n2 tablespoons avocado oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 (6 inch) corn tortillas\n\n\n2 tablespoons avocado oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cut tortillas in half, then slice crosswise into 1/8-inch strips. Place strips into a bowl and toss with oil until fully coated."},{"recipe_directions":"Transfer oiled strips to a baking sheet and arrange in a single layer."},{"recipe_directions":"Bake in the preheated oven until crisp and lightly browned, about 15 minutes. Remove from the oven and let cool before using."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n9g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641424-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4YQ7tJYg7Mk3CT9FCL1s4I3h5No=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1347x0:1349x2):format(webp)/8366938-9d1e7d574c9a49059a2d512d29507c13.jpg"
@@ -3011,59 +3180,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281031/aguachile/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Aguachile</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound large shrimp - peeled, deveined, and butterflied\n\n\n1 ¼ cups freshly squeezed lime juice\n\n\n4 fresh serrano chiles, stemmed\n\n\n⅓ cup fresh cilantro leaves and stems\n\n\n1 ½ teaspoons salt, divided, or to taste\n\n\n1 small red onion, thinly sliced\n\n\n1  avocado - peeled, pitted, and sliced\n\n\n1  cucumber, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound large shrimp - peeled, deveined, and butterflied\n\n\n1 ¼ cups freshly squeezed lime juice\n\n\n4 fresh serrano chiles, stemmed\n\n\n⅓ cup fresh cilantro leaves and stems\n\n\n1 ½ teaspoons salt, divided, or to taste\n\n\n1 small red onion, thinly sliced\n\n\n1  avocado - peeled, pitted, and sliced\n\n\n1  cucumber, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Divide shrimp onto two shallow plates."},{"recipe_directions":"Blend lime juice, chiles, cilantro leaves and stems, and 1 teaspoon salt in a blender until smooth. Pour 1/2 of the mixture over each plate of shrimp."},{"recipe_directions":"Cover and marinate in the refrigerator until shrimp turn opaque and white, 15 to 25 minutes."},{"recipe_directions":"To serve, top each plate with red onion and avocado. Place cucumber around the edges. Sprinkle with remaining salt."},{"recipe_directions":"Beware! This dish is meant to be very spicy. Adjust the heat level by using more or fewer serrano chiles."},{"recipe_directions":"Consuming raw seafood may increase your risk of foodborne illness, especially if you have certain medical conditions."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"481\nCalories\n\n\n19g \nFat\n\n\n33g \nCarbs\n\n\n50g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641432-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1003DhTL4GhbBDzqoER1f0eP9gg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/65338-Birria-de-Res-Tacos-ddmfs-4x3-2563-ca793a7c87c54af5ab600fd463ba2467.jpg"
@@ -3077,59 +3242,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265338/birria-de-res-tacos-beef-birria-tacos/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Birria de Res Tacos (Beef Birria Tacos)</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 3 hrs 45 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 4 hrs 15 mins\n\n\nServings:\n18 \n\n\nYield:\n18 tacos"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  dried guajillo chile peppers, seeded\n\n\n4  dried chile de arbol peppers, stemmed and seeded\n\n\n2  dried ancho chiles, stemmed and seeded\n\n\n1 tablespoon olive oil, or as needed\n\n\n4 medium Roma tomatoes\n\n\n2 tablespoons white vinegar\n\n\n2 cloves garlic\n\n\n2 teaspoons ground black pepper\n\n\n4  whole cloves\n\n\n1 pinch ground cinnamon\n\n\n1 pinch ground cumin\n\n\n1 pinch ground thyme\n\n\n1 pinch dried marjoram\n\n\n1 pinch dried oregano\n\n\n1 pinch salt"},{"recipe_ingredients":"4 pounds beef chuck roast\n\n\n  salt and freshly ground black pepper to taste"},{"recipe_ingredients":"18  corn tortillas\n\n\n1 large white onion, finely chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n1 cup shredded queso asadero (white Mexican cheese) (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  dried guajillo chile peppers, seeded\n\n\n4  dried chile de arbol peppers, stemmed and seeded\n\n\n2  dried ancho chiles, stemmed and seeded\n\n\n1 tablespoon olive oil, or as needed\n\n\n4 medium Roma tomatoes\n\n\n2 tablespoons white vinegar\n\n\n2 cloves garlic\n\n\n2 teaspoons ground black pepper\n\n\n4  whole cloves\n\n\n1 pinch ground cinnamon\n\n\n1 pinch ground cumin\n\n\n1 pinch ground thyme\n\n\n1 pinch dried marjoram\n\n\n1 pinch dried oregano\n\n\n1 pinch salt'}, {'recipe_ingredients': '4 pounds beef chuck roast\n\n\n  salt and freshly ground black pepper to taste'}, {'recipe_ingredients': '18  corn tortillas\n\n\n1 large white onion, finely chopped\n\n\n1 bunch fresh cilantro, chopped\n\n\n1 cup shredded queso asadero (white Mexican cheese) (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These restaurant-worthy birria tacos are crispy on the outside, yet incredibly tender and juicy on the inside? What's not to love about this top-rated tacos de birria recipe?"},{"recipe_directions":"Birria, a.k.a. tacos de birria, is a Mexican dish of meat (usually goat or beef) stewed in its braising liquid until it reaches a melt-in-your-mouth texture. Traditionally, it gets its flavor from dried chile peppers. Birria can be served alone as a stew or on corn tortillas."},{"recipe_directions":"These are the ingredients you'll need to make this top-rated birria tacos recipe:"},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make these tacos de birria:"},{"recipe_directions":"You can prepare these birria tacos in a slow cooker as well, but you will be sacrificing a little bit of flavor. Prepare the birria the same way, but place in a slow cooker instead of a Dutch oven and cook on High for 4 to 6 hours or on Low for 6 to 8 hours."},{"recipe_directions":"Culinary producer Nicole McLaughlin (a.k.a. NicoleMcMom) loves making tacos de birria to feed a crowd. Here are a few of her favorite tips and tricks:"},{"recipe_directions":"Pair each serving with a small bowl of the braising liquid for dipping. For a complete Mexican-inspired meal, explore this collection of 12 Side Dishes to Round Out Taco Night. Here's a preview of the mouthwatering recipes you'll find:"},{"recipe_directions":"\"Absolutely delicious,\" according to Tricia Lynch. \"I followed the recipe exactly and we made taco bowls with cauliflower rice and all the fixings to keep it low carb. Definitely a keeper.\""},{"recipe_directions":"\"Stayed strictly to the recipe,\" says Mark Matthews. \"It turned out great! The only thing I will try next time is to reserve more of the sauce for dipping.\""},{"recipe_directions":"\"The meat was falling apart tender and very flavorful,\" raves Allrecipes Allstar France C. \"I made the sauce the day before to save time. This one is a definite keeper!\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Fill a pot with water and bring to a boil."},{"recipe_directions":"Start the sauce: Add guajillo, arbol, and ancho chile peppers to the boiling water; boil for 5 minutes. Remove pot from the heat and allow peppers to soak until cool. Drain, reserving 1/4 cup of the cooking water."},{"recipe_directions":"Meanwhile, sear the meat: Rinse beef and pat dry with paper towels. Cut beef into chunks if desired, and season with salt and pepper."},{"recipe_directions":"Heat oil in a Dutch oven over medium-high heat. Add beef and cook until browned on all sides, about 10 minutes. Remove from the heat."},{"recipe_directions":"While the beef is searing, continue the sauce: Line a heavy cast-iron grill pan or griddle with aluminum foil and place over high heat. Arrange tomatoes in a single layer on top. Grill until tomato skin is burned on all sides and begins to peel, 3 to 5 minutes."},{"recipe_directions":"Place cooled chile peppers into a blender. Add vinegar, garlic, 2 teaspoons black pepper, cloves, cinnamon, cumin, thyme, marjoram, oregano, and salt in a blender. Pour in the reserved 1/4 cup of chile water and blend until smooth."},{"recipe_directions":"Strain chile sauce through a mesh strainer and pour over browned meat in the Dutch oven, turning the roast so it is completely covered with sauce; cover with a lid."},{"recipe_directions":"Bake in the preheated oven, basting meat every 45 minutes with sauce, until birria begins to fall apart, 3 to 4 hours. Remove the lid and bake, uncovered, until birria is crispy on top, about 20 minutes. Remove from oven, cover with 2 layers of aluminum foil, and allow to rest in a warm area for 10 minutes."},{"recipe_directions":"Remove meat to a cutting board and strain off any fat from the sauce. Shred meat with two forks, then return meat to the pot and stir with the sauce to combine."},{"recipe_directions":"Assemble and heat tacos: Fill each tortilla with birria and top with Mexican cheese, chopped onion, and cilantro. Warm tortillas on a griddle, flipping until both sides are crispy and cheese is melted."},{"recipe_directions":"Serve with extra sauce on the side for dipping."},{"recipe_directions":"You can prepare this dish in a slow cooker as well, but you will be sacrificing a little bit of flavor. Prepare the birria the same way, but place in a slow cooker instead of a Dutch oven and cook on High for 4 to 6 hours or on Low for 6 to 8 hours."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Tacos"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n21g \nFat\n\n\n1g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641435-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5G9z3DDdV5ktVOenAFfUK9vKX1o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4479695-68f66778f85e4e609171e372c489b517.jpg"
@@ -3142,59 +3303,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214083/sweet-rice/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Sweet Rice</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup uncooked long-grain white rice\n\n\n2 tablespoons unsalted butter\n\n\n3 cups whole milk, divided\n\n\n⅓ cup white sugar\n\n\n1 large egg\n\n\n1 tablespoon all-purpose flour\n\n\n1 ½ teaspoons vanilla extract\n\n\n⅔ cup heavy cream\n\n\n½ cup raisins (Optional)\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup uncooked long-grain white rice\n\n\n2 tablespoons unsalted butter\n\n\n3 cups whole milk, divided\n\n\n⅓ cup white sugar\n\n\n1 large egg\n\n\n1 tablespoon all-purpose flour\n\n\n1 ½ teaspoons vanilla extract\n\n\n⅔ cup heavy cream\n\n\n½ cup raisins (Optional)\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water, rice, and butter to a boil in a large saucepan over high heat. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid is absorbed, 20 to 25 minutes."},{"recipe_directions":"Whisk together 2 cups milk, sugar, egg, flour, and vanilla in a bowl; pour over cooked rice in the saucepan and stir to combine. Bring to a simmer over low heat and cook, stirring occasionally, for 15 minutes."},{"recipe_directions":"Stir in remaining 1 cup milk, cream, raisins, and cinnamon until thoroughly mixed. Let cool for a few minutes. Serve warm or cold."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"418\nCalories\n\n\n19g \nFat\n\n\n54g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641438-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ar-5yFAHZiIEw2_z-Fd33k6KvWQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485442-58b33eae8ca844589869edb287572626.jpg"
@@ -3207,59 +3364,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214091/flan-mexicano-mexican-flan/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Flan Mexicano (Mexican Flan)</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 5 hrs\n\n\nTotal Time:\n 6 hrs 5 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 cup whole milk\n\n\n3 large eggs\n\n\n3 large egg yolks\n\n\n¼ cup freshly squeezed orange juice\n\n\n1 tablespoon grated orange peel\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon cornstarch\n\n\n1 cup heavy cream"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 cup whole milk\n\n\n3 large eggs\n\n\n3 large egg yolks\n\n\n¼ cup freshly squeezed orange juice\n\n\n1 tablespoon grated orange peel\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon cornstarch\n\n\n1 cup heavy cream'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sugar into a heavy saucepan over medium-high heat. Cook, stirring constantly, until sugar melts and turns a golden amber color, about 10 minutes. Watch carefully once syrup begins to change color because it burns quickly. Carefully pour caramel syrup into a flan mold. Set aside to cool."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Place an oven rack in the middle position."},{"recipe_directions":"Place sweetened condensed milk, whole milk, eggs, egg yolks, orange juice, orange peel, vanilla, and cornstarch into a blender; blend until smooth, about 1 minute. Pour in cream and pulse several times to incorporate. Pour mixture over cooled caramel syrup in the flan mold."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place the filled flan mold carefully on the towel in the roasting pan, then place the roasting pan on the oven rack. Fill the roasting pan with enough boiling water to reach halfway up the sides of the flan mold."},{"recipe_directions":"Bake in the preheated oven until the center of flan is set but still slightly jiggles when nudged, 45 minutes to 1 hour. Let cool, then refrigerate for at least 4 hours."},{"recipe_directions":"To serve, run a sharp paring knife around the inside of the mold to release flan. Place a serving plate on the mold, then flip the mold over. Gently lift the mold to release flan and allow caramel syrup to cascade over custard. Remove the mold."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n20g \nFat\n\n\n56g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641446-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fa7xRYVzxCpZEgBeWKxqOqfhy3E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/54942-cdbda87918c3458abaf97a89bf3f524f.jpg"
@@ -3272,59 +3425,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34759/beef-tamales/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Beef Tamales</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 4 hrs 30 mins\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n36 \n\n\nYield:\n6 dozen tamales"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 pounds boneless chuck roast\n\n\n4 cloves garlic\n\n\n3 (8 ounce) packages dried corn husks\n\n\n4  dried ancho chiles\n\n\n2 tablespoons vegetable oil\n\n\n2 tablespoons all-purpose flour\n\n\n1 cup beef broth\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons chopped fresh oregano\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon red pepper flakes\n\n\n1 teaspoon white vinegar\n\n\n  salt to taste\n\n\n3 cups lard\n\n\n1 tablespoon salt\n\n\n9 cups masa harina"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 pounds boneless chuck roast\n\n\n4 cloves garlic\n\n\n3 (8 ounce) packages dried corn husks\n\n\n4  dried ancho chiles\n\n\n2 tablespoons vegetable oil\n\n\n2 tablespoons all-purpose flour\n\n\n1 cup beef broth\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons chopped fresh oregano\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon red pepper flakes\n\n\n1 teaspoon white vinegar\n\n\n  salt to taste\n\n\n3 cups lard\n\n\n1 tablespoon salt\n\n\n9 cups masa harina'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beef and garlic in a large pot. Cover with cold water and bring to a boil over high heat; reduce heat, cover, and simmer until beef is tender and shreds easily, about 3 1/2 hours. Remove beef from pot, reserving 5 cups cooking liquid and discarding garlic. Allow meat to cool slightly; shred finely with forks."},{"recipe_directions":"Meanwhile, place corn husks in a large container and cover with warm water; soak, weighed down with an inverted plate and a heavy can, until soft and pliable, about 3 hours."},{"recipe_directions":"Toast ancho chiles in a cast iron skillet; cool, then remove stems and seeds. Crumble and grind in a clean coffee grinder or with a mortar and pestle."},{"recipe_directions":"Heat oil in a large skillet; stir in flour and allow to brown slightly. Pour in 1 cup beef broth and stir until smooth. Mix in ground chiles, garlic, oregano, cumin seeds, ground cumin, red pepper flakes, vinegar, and salt. Stir shredded beef into skillet and cover. Let simmer for 45 minutes."},{"recipe_directions":"Place lard and salt in a large mixing bowl; beat with an electric mixer on high speed until fluffy. Add masa harina and beat at low speed until well mixed. Pour in reserved cooking liquid, a little at a time, until mixture is the consistency of soft cookie dough."},{"recipe_directions":"Drain water from corn husks. One at a time, flatten out each husk, with the narrow end facing you, and spread approximately 2 tablespoons masa mixture onto the top 2/3 of the husk. Spread about 1 tablespoon of meat mixture down the middle of the masa. Roll up the corn husk starting at one of the long sides. Fold the narrow end of the husk onto the rolled tamale and tie with a piece of butchers' twine."},{"recipe_directions":"Place tamales in a steamer basket. Steam over boiling water for approximately one hour, until masa is firm and holds its shape, adding more water if needed so the steamer does not boil dry. Serve immediately, allowing each person to unwrap their own tamales."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"347\nCalories\n\n\n24g \nFat\n\n\n23g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641451-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LwJDdV_jQKuXYUFIaMtBTn2hKHA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1008443-bddf126d4ae84d10a36e56618147f929.jpg"
@@ -3337,59 +3486,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217840/papas-rellenas-fried-stuffed-potatoes/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Papas Rellenas (Fried Stuffed Potatoes)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 4 hrs 15 mins\n\n\nServings:\n12 \n\n\nYield:\n12 stuffed potatoes"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large potatoes, peeled and cubed\n\n\n1 ½ teaspoons salt, divided\n\n\n1 tablespoon vegetable oil\n\n\n1  green bell pepper, chopped\n\n\n½ cup chopped onion\n\n\n3 cloves garlic, minced\n\n\n1 pound ground beef\n\n\n4 teaspoons tomato paste\n\n\n1 tablespoon distilled white vinegar\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon ground black pepper\n\n\n4 large eggs\n\n\n2 cups dry bread crumbs\n\n\n1 cup all-purpose flour\n\n\n1 quart vegetable oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large potatoes, peeled and cubed\n\n\n1 ½ teaspoons salt, divided\n\n\n1 tablespoon vegetable oil\n\n\n1  green bell pepper, chopped\n\n\n½ cup chopped onion\n\n\n3 cloves garlic, minced\n\n\n1 pound ground beef\n\n\n4 teaspoons tomato paste\n\n\n1 tablespoon distilled white vinegar\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon ground black pepper\n\n\n4 large eggs\n\n\n2 cups dry bread crumbs\n\n\n1 cup all-purpose flour\n\n\n1 quart vegetable oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes into a large pot; cover with salted water. Bring to a boil over high heat, then reduce heat to medium-low, cover, and simmer until tender, about 20 minutes. Drain and allow to steam dry for 1 to 2 minutes. Mash potatoes with 1/2 teaspoon salt in a bowl until no lumps remain. Set aside to cool to room temperature."},{"recipe_directions":"Meanwhile, heat vegetable oil in a large skillet over medium heat. Cook and stir green pepper, onion, and garlic in the hot skillet until onion has softened and turned translucent, about 10 minutes."},{"recipe_directions":"Increase heat to medium-high; stir in ground beef. Cook and stir until beef is crumbly and no longer pink. Stir in tomato paste, vinegar, cumin, 1 teaspoon salt, and pepper until tomato paste has dissolved. Transfer beef mixture to a bowl; allow to cool to room temperature."},{"recipe_directions":"Line a baking sheet with plastic wrap or waxed paper; set aside. Beat eggs in a mixing bowl; set aside. Pour bread crumbs and flour into separate, shallow dishes; set aside."},{"recipe_directions":"Grab a handful of mashed potatoes (about 1/12 of the mashed potatoes); split into 2 equal portions. Form each piece into a small bowl shape and fill each with beef mixture. Place halves together, seal edges, and smooth to make a round ball. Repeat this step with remaining potatoes and beef mixture."},{"recipe_directions":"Working one at a time, gently roll potato balls in flour to coat; shake off excess. Dip into beaten egg, then roll in bread crumbs. Gently toss between your hands so any bread crumbs that haven't stuck can fall away. Place breaded potato balls onto the prepared baking sheet. Refrigerate for 2 to 4 hours or freeze for later use."},{"recipe_directions":"Heat oil in a deep fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cook potato balls in hot oil in batches, using tongs to roll balls around as they cook to ensure even browning, until crispy and golden brown, about 3 minutes per batch. Drain on a paper towel-lined plate."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the breading ingredients. The actual amount of the breading consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"380\nCalories\n\n\n16g \nFat\n\n\n45g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641454-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CyBsO7AiPALjWcc7K39Sd5FRmkw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4130104-68165c9a9ca748afa6de95206a10c269.jpg"
@@ -3402,59 +3547,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213701/carne-en-su-jugo-meat-in-its-juices/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Carne en su Jugo (Meat in its Juices)</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices bacon\n\n\n3 cups water\n\n\n4  fresh tomatillos, husks removed\n\n\n3  serrano chile peppers, seeded and chopped\n\n\n1 clove garlic, peeled\n\n\n2 pounds flank steak, cut into 1/2-inch squares\n\n\n1 cube chicken bouillon\n\n\n2 (15.5 ounce) cans pinto beans\n\n\n½  onion, chopped\n\n\n6 tablespoons chopped fresh cilantro\n\n\n  ground black pepper, to taste\n\n\n1  lime, cut into 6 wedges"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices bacon\n\n\n3 cups water\n\n\n4  fresh tomatillos, husks removed\n\n\n3  serrano chile peppers, seeded and chopped\n\n\n1 clove garlic, peeled\n\n\n2 pounds flank steak, cut into 1/2-inch squares\n\n\n1 cube chicken bouillon\n\n\n2 (15.5 ounce) cans pinto beans\n\n\n½  onion, chopped\n\n\n6 tablespoons chopped fresh cilantro\n\n\n  ground black pepper, to taste\n\n\n1  lime, cut into 6 wedges'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain bacon slices on paper towels. Crumble bacon and set aside."},{"recipe_directions":"Combine water, tomatillos, serrano peppers, and garlic in a small saucepan over medium-high heat; bring to a boil, cover, and simmer for 10 minutes. Remove from heat and allow to cool. Transfer contents to a blender; blend until smooth and set aside. (You can skip the simmering step and blend raw tomatillos, peppers, and garlic with water and a few pieces of browned flank steak if you like.)"},{"recipe_directions":"Place a nonstick skillet over medium-high heat; cook and stir flank steak in the hot skillet until completely browned. Pour tomatillo mixture over beef and bring to a boil. Stir in chicken bouillon and reduce heat to medium. Cover the skillet and simmer until tender, 30 minutes to 1 hour."},{"recipe_directions":"Meanwhile, heat pinto beans in a saucepan over medium heat until warm; reduce heat to low to keep warm until needed."},{"recipe_directions":"Stir bacon and pinto beans into flank steak mixture; divide mixture between 6 bowls. Garnish each with onion, cilantro, black pepper, and a lime wedge."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"373\nCalories\n\n\n16g \nFat\n\n\n28g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641461-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kbJhxVUJwfS_sz3VHpSv6mPEiSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/5369243-0effadc01c7c4a0bbf7f668f182078b3.jpg"
@@ -3467,59 +3608,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/139603/slow-cooker-carnitas/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Slow Cooker Carnitas</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 10 hrs\n\n\nTotal Time:\n 10 hrs 10 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon salt\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon crumbled dried oregano\n\n\n½ teaspoon ground coriander\n\n\n¼ teaspoon ground cinnamon\n\n\n1 (4 pound) boneless pork shoulder roast\n\n\n2  bay leaves\n\n\n2 cups chicken broth"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon salt\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon crumbled dried oregano\n\n\n½ teaspoon ground coriander\n\n\n¼ teaspoon ground cinnamon\n\n\n1 (4 pound) boneless pork shoulder roast\n\n\n2  bay leaves\n\n\n2 cups chicken broth'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix salt, garlic powder, cumin, oregano, coriander, and cinnamon together in a bowl; coat pork with spice mixture. Place bay leaves in the bottom of a slow cooker and arrange pork on top. Pour chicken broth around the sides of pork, being careful not to rinse off spice mixture."},{"recipe_directions":"Cover and cook on Low, turning after 5 hours, until pork shreds easily with a fork, about 10 hours in total."},{"recipe_directions":"When the pork is tender, remove from the slow cooker; shred with two forks. Use cooking liquid as needed to moisten the meat."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"223\nCalories\n\n\n14g \nFat\n\n\n1g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641466-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NsVIo-eTsvZOBRktj4vYkmf8Bg8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(690x603:692x605):format(webp)/6363979-authentic-tacos-al-pastor-AllrecipesPhoto-1x1-1-6821a6ce1c9c4a39b2d4cb668626668e.jpg"
@@ -3533,59 +3670,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257538/authentic-tacos-al-pastor/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Authentic Tacos al Pastor</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  tomato\n\n\n3  dried guajillo chile peppers, seeded\n\n\n2  dried ancho chile peppers, seeded\n\n\n1  pineapple, sliced 3/4-inch thick\n\n\n½ cup orange juice\n\n\n1  onion, quartered\n\n\n¼ cup white vinegar\n\n\n2  chipotle peppers in adobo sauce\n\n\n1 tablespoon salt, or to taste\n\n\n2 cloves garlic, crushed\n\n\n3  cloves\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon dried oregano\n\n\n2 pounds boneless pork loin, thinly sliced"},{"recipe_ingredients":"½ cup chopped onion\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  tomato\n\n\n3  dried guajillo chile peppers, seeded\n\n\n2  dried ancho chile peppers, seeded\n\n\n1  pineapple, sliced 3/4-inch thick\n\n\n½ cup orange juice\n\n\n1  onion, quartered\n\n\n¼ cup white vinegar\n\n\n2  chipotle peppers in adobo sauce\n\n\n1 tablespoon salt, or to taste\n\n\n2 cloves garlic, crushed\n\n\n3  cloves\n\n\n1 teaspoon cumin seeds\n\n\n1 teaspoon dried oregano\n\n\n2 pounds boneless pork loin, thinly sliced'}, {'recipe_ingredients': '½ cup chopped onion\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare your taste buds for this deliciously tender and flavorful tacos al pastor recipe."},{"recipe_directions":"Two pounds of thinly sliced boneless pork loin is marinated in a blended mixture of tomatoes, two types of peppers (guajillo chile peppers and ancho chile peppers), sliced pineapple, orange juice, an onion, vinegar, chipotle peppers in adobo sauce, salt, garlic, cumin seeds, and dried oregano."},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make homemade tacos al pastor:"},{"recipe_directions":"Recipe creator docmancito suggests serving tacos al pastor with warm corn tortillas, tomatillos salsa, lemon or lime wedges, grilled pineapple, chopped onion, and cilantro. You can also explore our entire collection of Mexican Side Dishes for mouthwatering serving inspiration. Here are a few of the top-rated recipes you’ll find:"},{"recipe_directions":"Store the tacos al pastor meat separately from the tortillas and toppings. Place the meat in a shallow, airtight container and store in the refrigerator for up to three days. For the best results, reheat the pork on the stove."},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Cook tomato on a ridged grill pan over medium-high heat until slightly blackened, about 5 minutes. Remove from heat and cool until easily handled. Peel off skin and remove seeds."},{"recipe_directions":"Bring a small pot of water to a boil. Add guajillo and ancho chile peppers; cook until softened, about 5 minutes. Drain."},{"recipe_directions":"Combine tomato flesh, softened chile peppers, 2 slices pineapple, orange juice, quartered onion, vinegar, chipotle peppers, salt, garlic, cloves, cumin seeds, and oregano in a blender; blend until smooth."},{"recipe_directions":"Arrange pork slices in a glass or ceramic baking dish. Pour blended mixture over pork, ensuring all sides are evenly coated. Cover baking dish with plastic wrap."},{"recipe_directions":"Marinate pork in the refrigerator, 4 hours to overnight."},{"recipe_directions":"Cook remaining pineapple slices on a ridged grill pan over medium-high heat until slightly blackened and soft, about 5 minutes per side. Chop into small pieces."},{"recipe_directions":"Wipe out grill pan and preheat over medium-high heat. Cook marinated pork in the hot pan, turning once, until browned, 4 to 5 minutes."},{"recipe_directions":"Chop pork coarsely into small pieces against the grain. Serve with pineapple, chopped onion, and cilantro."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Tacos"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"204\nCalories\n\n\n6g \nFat\n\n\n23g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641472-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6tPfKd6lrSKUkKDs8ZtiUqJuOi8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/228393-authentic-mexican-shrimp-cocktail-coctel-de-camarones-estilo-mexicano-ddmfs-beauty-3x4-9cda2dfc17a543d8b128ca2208a71d39.jpg"
@@ -3599,59 +3732,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228393/authentic-mexican-shrimp-cocktail-coctel-de-camarones-estilo-mexicano/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Authentic Mexican Shrimp Cocktail (Coctel de Camarones estilo Mexicano)</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup Spanish onion, chopped\n\n\n¼ cup freshly squeezed lime juice\n\n\n1 pound chilled cooked medium shrimp - peeled, deveined, and tails removed\n\n\n2  roma (plum) tomatoes, chopped\n\n\n1  cucumber, finely chopped\n\n\n1 stalk celery, finely chopped\n\n\n1  jalapeno pepper, seeded and finely chopped\n\n\n2 teaspoons salt\n\n\n2 teaspoons ground black pepper\n\n\n1 ½ cups chilled tomato and clam juice cocktail (such as Clamato®)\n\n\n1 cup chilled ketchup (such as Heinz®)\n\n\n1 bunch fresh cilantro - stems discarded and leaves chopped\n\n\n2 tablespoons hot pepper sauce (such as Valentina®)\n\n\n2  avocados - peeled, pitted, and chopped"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup Spanish onion, chopped\n\n\n¼ cup freshly squeezed lime juice\n\n\n1 pound chilled cooked medium shrimp - peeled, deveined, and tails removed\n\n\n2  roma (plum) tomatoes, chopped\n\n\n1  cucumber, finely chopped\n\n\n1 stalk celery, finely chopped\n\n\n1  jalapeno pepper, seeded and finely chopped\n\n\n2 teaspoons salt\n\n\n2 teaspoons ground black pepper\n\n\n1 ½ cups chilled tomato and clam juice cocktail (such as Clamato®)\n\n\n1 cup chilled ketchup (such as Heinz®)\n\n\n1 bunch fresh cilantro - stems discarded and leaves chopped\n\n\n2 tablespoons hot pepper sauce (such as Valentina®)\n\n\n2  avocados - peeled, pitted, and chopped'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This tangy and refreshing Mexican shrimp cocktail recipe screams \"summertime\" with a mouthwatering blend of chopped tomatoes, jalapenos, clam juice, and hot pepper sauce. Learn to make this vibrant dish and dive into 5-star flavor."},{"recipe_directions":"A deliciously succulent and spicy shrimp cocktail is an instant party starter. You'll find the full recipe below with step-by-step instructions, but here's what you can expect when you make this top-rated recipe:"},{"recipe_directions":"Start by combining lime juice and onion in a small bowl. Allow the mixture to sit for at least 10 minutes. Combine shrimp with all vegetables (except avocado), salt, and pepper in a separate bowl."},{"recipe_directions":"Stir tomato and clam juice, pepper sauce, ketchup, and cilantro into the shrimp mixture. Gently fold in avocados and onions before chilling for about one hour."},{"recipe_directions":"Coctel de camarones is a garden-fresh dish that pairs well with salads and smoky meats alike. Try a zesty grilled corn recipe or spicy chorizo hash for perfectly balanced flavor."},{"recipe_directions":"Shrimp cocktail is most delicious the same day it's made, but cooked shrimp will last 3-4 days in the refrigerator. Store in an airtight container or tightly wrapped in plastic for best results."},{"recipe_directions":"To freeze Mexican shrimp cocktail, portion out small servings and place them in plastic bags. Place all of the bags in an airtight container to minimize exposure. Thaw shrimp in the refrigerator and reheat gently on the stovetop."},{"recipe_directions":"\"Being Mexican, this dish is a staple in our cuisine (especially during lent and summer) so naturally I had made this my own way for years,\" shares one Allrecipes community member. \"I tried this recipe today for the first time and was wonderfully surprised with the outcome!\""},{"recipe_directions":"\"So delicious!\" raves Rosario. \"The best thing is that you can modify it any way you want. Also, save the avocados until you're ready to eat.\""},{"recipe_directions":"\"To control the heat a bit and to make prep easier, I suggest buying 2-3 containers of already made fresh pico de gallo instead of buying and having to chop onion, tomato, cilantro or jalapeno,\" says Vixxsin."},{"recipe_directions":"Editorial contributions by Rai Mincey"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix onion with lime juice in a small bowl and allow to stand for 10 minutes."},{"recipe_directions":"Meanwhile, toss shrimp, roma tomatoes, cucumber, celery, jalapeno, salt, and black pepper in a medium bowl until thoroughly combined."},{"recipe_directions":"Whisk tomato and clam juice cocktail, ketchup, cilantro, and hot pepper sauce in a separate bowl; stir dressing into shrimp mixture."},{"recipe_directions":"Gently fold in avocados. Stir in onion mixture. Cover and chill thoroughly, at least 1 hour."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"410\nCalories\n\n\n17g \nFat\n\n\n42g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699641476-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xEnYOYhWFxbLguDn4d5UFHUQshE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/219646-Authentic-Mexican-Chile-Rellenos-Baking-Nana_5362039_original-1x1-1-eb96e0b945564a44ba807cd42c597c15.jpg"
@@ -3665,59 +3794,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219646/authentic-mexican-chili-rellenos/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Authentic Mexican Chile Rellenos</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  fresh Anaheim chile peppers\n\n\n1 (8 ounce) package queso asadero (white Mexican cheese), cut into 3/4-inch thick strips\n\n\n2 large eggs, separated\n\n\n1 teaspoon baking powder\n\n\n¾ cup all-purpose flour\n\n\n1 cup vegetable shortening for frying"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  fresh Anaheim chile peppers\n\n\n1 (8 ounce) package queso asadero (white Mexican cheese), cut into 3/4-inch thick strips\n\n\n2 large eggs, separated\n\n\n1 teaspoon baking powder\n\n\n¾ cup all-purpose flour\n\n\n1 cup vegetable shortening for frying'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven broiler; set the oven rack about 6 inches below the heat source. Line a baking sheet with aluminum foil."},{"recipe_directions":"Place peppers onto the prepared baking sheet and broil until skins are blackened and blistered, about 10 minutes. Use tongs to rotate peppers often to char all sides. Place blackened peppers into a bowl and tightly seal with plastic wrap. Allow peppers to steam as they cool, about 15 minutes."},{"recipe_directions":"Remove skin from peppers, then cut a slit down the long side of each one to remove seeds and core. Rinse peppers inside and out and pat dry with paper towels. Stuff peppers with strips of cheese."},{"recipe_directions":"Whisk egg yolks and baking powder in a bowl until combined. Beat egg whites with an electric mixer in a separate bowl until stiff peaks form. Gently fold beaten whites into the yolk mixture. Place flour into a separate shallow bowl."},{"recipe_directions":"Melt vegetable shortening in a skillet over medium heat. Roll each stuffed pepper in flour, tap off excess flour, and dip into the egg mixture to coat both sides. Gently lay coated peppers into the hot shortening. Fry peppers until lightly golden brown and cheese has melted, about 5 minutes per side."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the flour for breading. The actual amount of the breading consumed will vary."},{"recipe_directions":"This restaurant-worthy chile relleno recipe is easy, cheesy, and full of Mexican flavor."},{"recipe_directions":"Chile relleno is a Mexican dish that means “stuffed chile.” A chile pepper (such as a poblano or an Anaheim) is broiled, then stuffed with cheese and fried to golden and crispy perfection. Chile rellenos are served alone or topped with a tomato sauce."},{"recipe_directions":"You’ll find the full, step-by-step recipe above — but here’s a brief overview of what you can expect when you make this chile relleno recipe:"},{"recipe_directions":"Explore our entire collection of Mexican Side Dishes for delicious serving inspiration. Here are a few of the top-rated recipes you’ll find:"},{"recipe_directions":"Store leftover fried chile rellenos in an airtight container in the refrigerator for up to three days. Reheat on a baking sheet in the oven."},{"recipe_directions":"You can freeze chile rellenos for up to two months. Thaw in the refrigerator overnight, then reheat in the oven."},{"recipe_directions":"“Absolute best chile relleno recipe,” raves Cindy M. Thomason. “The rellenos came out nice and fluffy.”"},{"recipe_directions":"“This is my go-to recipe since the first time I made them,” says Vicki Page. “Delicious, easy, and authentic. I don’t change anything, usually. I may put some taco seasonings in the flour on occasion, and a spicy tomato sauce on top.”"},{"recipe_directions":"“Awesome,” according to Leslie Tau-Holzhausen. “I never made them before and they came out perfect. I used poblanos because that’s what I had on hand. I charred them over an open flame on the stove and followed the rest of the recipe as indicated. This is a no-fail recipe.”"},{"recipe_directions":"Editorial contributions by Corey Williams"}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Stuffed"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"263\nCalories\n\n\n16g \nFat\n\n\n17g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699641482-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YpnuVhZzN5u4BQROiqKU1m10ugQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/barbacoa-mfs-beauty-1x1-1-eeef8971a8de40dab2f09f64d1a757f7.jpg"
@@ -3729,59 +3854,55 @@
 Barbacoa Tacos</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8497570/barbacoa-tacos/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Barbacoa Tacos</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  ripe plum tomatoes\n\n\n1 small white onion, quartered\n\n\n2 cloves garlic, peeled\n\n\n4  chipotle peppers in adobo sauce\n\n\n3 teaspoons kosher salt\n\n\n1 ½ teaspoons chili powder\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 (3 pound) beef chuck roast, cut into 6-equal sized cubes \n\n\n2 tablespoons olive oil\n\n\n1 cup water\n\n\n1 tablespoon light brown sugar\n\n\n2 teaspoons dried oregano\n\n\n3  fresh bay leaves\n\n\n1 tablespoon lime juice\n\n\n  corn tortillas, warmed\n\n\n2  ripe avocados, peeled, pitted and sliced\n\n\n½ bunch radishes, thinly sliced\n\n\n2 tablespoons chopped fresh cilantro, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  ripe plum tomatoes\n\n\n1 small white onion, quartered\n\n\n2 cloves garlic, peeled\n\n\n4  chipotle peppers in adobo sauce\n\n\n3 teaspoons kosher salt\n\n\n1 ½ teaspoons chili powder\n\n\n1 teaspoon ground cumin\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 (3 pound) beef chuck roast, cut into 6-equal sized cubes \n\n\n2 tablespoons olive oil\n\n\n1 cup water\n\n\n1 tablespoon light brown sugar\n\n\n2 teaspoons dried oregano\n\n\n3  fresh bay leaves\n\n\n1 tablespoon lime juice\n\n\n  corn tortillas, warmed\n\n\n2  ripe avocados, peeled, pitted and sliced\n\n\n½ bunch radishes, thinly sliced\n\n\n2 tablespoons chopped fresh cilantro, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large cast iron skillet over medium-high. Arrange whole tomatoes, onions (cut-side down), and garlic in the dry skillet in a single layer, working in batches if needed. Cook, turning occasionally, until charred on all sides, about 6 minutes for the garlic and about 12 minutes for the onions and tomatoes."},{"recipe_directions":"Transfer charred vegetables to a blender and add chipotle peppers. Process until smooth, about 1 minute."},{"recipe_directions":"Stir salt, chili powder, cumin, and black pepper together in a small bowl; season beef evenly with salt mixture."},{"recipe_directions":"Heat oil in a Dutch oven over medium-high heat. Add beef in batches and cook, turning occasionally, until browned on all sides, about 3 minutes per side. Transfer browned beef to a large plate."},{"recipe_directions":"Pour water into the Dutch oven and scrape up any browned bits from the bottom of the pan. Stir in onion-tomato mixture, brown sugar, oregano, and bay leaves. Reduce heat to medium-low and bring to a simmer."},{"recipe_directions":"Nestle beef back into pot and cover. Cook, stirring and re-nestling beef occasionally (about every 20 to 30 minutes), until beef is tender and pulls easily apart with a fork, 1 hour and 45 minutes to 2 hours and 15 minutes. Remove bay leaves and discard."},{"recipe_directions":"Remove beef from Dutch oven, place on cutting board; shred beef using 2 forks."},{"recipe_directions":"Return beef to the Dutch oven, add lime juice, and stir to combine."},{"recipe_directions":"Serve in corn tortillas with avocado, radishes, and cilantro."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Tacos"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"771\nCalories\n\n\n56g \nFat\n\n\n25g \nCarbs\n\n\n43g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699641487-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Pgo_D2Bx3VXvX0odJFFBjN74kSU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/chicken-al-pastor-ddmfs-0833-1x1-1-2b528ef3cdc04bf9937fd55f3400dddc.jpg"
@@ -3795,59 +3916,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8509102/chicken-al-pastor/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Chicken Al Pastor</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n 1 hr 30 mins\n\n\nActive Time:\n30 mins\n\n\nMarinate Time:\n 8 hrs\n\n\nStand Time:\n10 mins\n\n\nTotal Time:\n 10 hrs 10 mins\n\n\nServings:\n10 \n\n\nYield:\n20 tacos"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  dried guajillo chiles, stemmed and seeded\n\n\n2 tablespoons achiote paste\n\n\n6 large cloves garlic, peeled\n\n\n1 (7 ounce) can chipotle peppers in adobo sauce, drained\n\n\n1 ⅓ cups finely chopped onion, divided\n\n\n⅔ cup orange juice\n\n\n3 tablespoons apple cider vinegar\n\n\n3 tablespoons olive oil\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon light brown sugar\n\n\n1 teaspoon kosher salt\n\n\n3 pounds skinless, boneless chicken thighs, cut in half\n\n\n  8 (12-inch) jumbo wooden skewers\n\n\n1 large fresh pineapple - peeled, cored, and sliced\n\n\n20 (6 inch) corn tortillas\n\n\n¼ cup roughly chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  dried guajillo chiles, stemmed and seeded\n\n\n2 tablespoons achiote paste\n\n\n6 large cloves garlic, peeled\n\n\n1 (7 ounce) can chipotle peppers in adobo sauce, drained\n\n\n1 ⅓ cups finely chopped onion, divided\n\n\n⅔ cup orange juice\n\n\n3 tablespoons apple cider vinegar\n\n\n3 tablespoons olive oil\n\n\n1 tablespoon ground cumin\n\n\n1 tablespoon light brown sugar\n\n\n1 teaspoon kosher salt\n\n\n3 pounds skinless, boneless chicken thighs, cut in half\n\n\n  8 (12-inch) jumbo wooden skewers\n\n\n1 large fresh pineapple - peeled, cored, and sliced\n\n\n20 (6 inch) corn tortillas\n\n\n¼ cup roughly chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium-high heat. Add dried chiles; cook, turning occasionally, until toasted and blistered in spots, 3 to 5 minutes. Add 1 cup water to just cover the chiles, and bring to a simmer over medium-high. Cover and cook, undisturbed, until softened, about 5 minutes. Drain well."},{"recipe_directions":"Combine chiles, achiote, garlic, chipotles, 2/3 cup onion, orange juice, vinegar, oil, cumin, brown sugar, and salt in a blender; process until smooth, about 30 seconds. Reserve 1/2 cup marinade, cover, and refrigerate until ready to use."},{"recipe_directions":"Place remaining marinade in a shallow dish or large resealable plastic bag, add chicken; toss to evenly coat. Cover chicken with plastic wrap, and refrigerate at least 8 hours or up to 24 hours."},{"recipe_directions":"Place wooden skewers in a shallow dish; cover with water by 1 inch. Let stand at room temperature while chicken marinates."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Position oven rack 8 inches away from heating element. Line a small roasting pan or 13- x 9-inch baking dish with aluminum foil."},{"recipe_directions":"Thread 1 pineapple slice onto 2 skewers, being sure to pierce through the center core, (skewers will be about 1 inch apart), leaving a 1 1/2-inch space from end of skewer. Thread 5 to 6 pieces of marinated chicken, stacking on top of pineapple; thread 1 pineapple slice. Repeat process, ending with pineapple slice, until all chicken pieces and pineapple slices are used, making 4 stacks total. Brush with any remaining marinade from chicken."},{"recipe_directions":"Place stacked skewers in the prepared pan, resting skewer ends on edge of pan so that the chicken doesn't touch the bottom of the pan."},{"recipe_directions":"Bake in the preheated oven for 30 minutes. Flip skewers over, brush with reserved 1/2 cup marinade. Bake until chicken is no longer pink in the center and the juices run clear, about 30 minutes longer. An instant-read thermometer inserted into the center should read 160 degrees F (71 degrees C). Increase oven temperature to broil; broil until browned and crispy, 3 to 5 minutes. Flip, and broil until browned and crispy, 3 to 5 minutes."},{"recipe_directions":"Meanwhile, heat a large skillet over high heat. Working two at a time, add tortillas; cook, turning once, until heated and browning in some spots, 1 to 2 minutes per side. Repeat with remaining tortillas."},{"recipe_directions":"Remove chicken and pineapple from skewers, place on cutting board, roughly chop."},{"recipe_directions":"Divide chicken and pineapple between heated tortillas; top with remaining onion and cilantro."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Mexican"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Tacos"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"324\nCalories\n\n\n10g \nFat\n\n\n31g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699641492-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QiKkGe6TqR7ssAFR3I7rDzYKZ9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/birria-de-pollo-soup-mfs-1x1-406-1-2000-84e01694d239438dac110d82d0c2b981.jpg"
@@ -3861,59 +3978,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8463919/birria-de-pollo-chicken-birria/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Birria de Pollo (Chicken Birria)</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups chicken broth\n\n\n4  dried guajillo chiles, stemmed and seeded\n\n\n4  dried ancho chiles, stemmed and seeded\n\n\n1  dried de árbol chile, stemmed and seeded (Optional)\n\n\n3 tablespoons canola oil, divided \n\n\n1 medium white onion, quartered, divided\n\n\n4 cloves garlic\n\n\n1 (14.5 ounce) can fire-roasted diced tomatoes\n\n\n2 tablespoons apple cider vinegar\n\n\n2 teaspoons kosher salt, divided\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon ground cloves\n\n\n1 ½ pounds skinless, boneless chicken breasts\n\n\n1  bay leaf\n\n\n¼ cup crispy tortilla strips (Optional)\n\n\n2 tablespoons chopped fresh cilantro, or to taste\n\n\n6  lime wedges, for serving"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups chicken broth\n\n\n4  dried guajillo chiles, stemmed and seeded\n\n\n4  dried ancho chiles, stemmed and seeded\n\n\n1  dried de árbol chile, stemmed and seeded (Optional)\n\n\n3 tablespoons canola oil, divided \n\n\n1 medium white onion, quartered, divided\n\n\n4 cloves garlic\n\n\n1 (14.5 ounce) can fire-roasted diced tomatoes\n\n\n2 tablespoons apple cider vinegar\n\n\n2 teaspoons kosher salt, divided\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon ground cloves\n\n\n1 ½ pounds skinless, boneless chicken breasts\n\n\n1  bay leaf\n\n\n¼ cup crispy tortilla strips (Optional)\n\n\n2 tablespoons chopped fresh cilantro, or to taste\n\n\n6  lime wedges, for serving'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Add chicken broth to a medium saucepan and bring to a boil over medium-high. Remove from heat and add dried chiles. Cover and let sit until chiles have softened, about 10 minutes."},{"recipe_directions":"Meanwhile, heat 2 tablespoons of the oil in a large pot or Dutch oven over medium-high. Add 3 of the onion quarters, reserving the last quarter for later use, and garlic to pan. Cook, flipping once, until charred, about 6 minutes."},{"recipe_directions":"Remove from heat (do not wipe out the pot), and transfer onion and garlic to a blender. Add chicken broth, chiles, tomatoes, vinegar, 1 teaspoon salt, cumin, oregano, pepper, and cloves. Secure lid on blender, and remove center piece to allow steam to escape. Place a clean towel over opening. Process until combined, about 1 to 2 minutes."},{"recipe_directions":"Pour through a fine mesh strainer into a large bowl."},{"recipe_directions":"Season chicken with remaining 1 teaspoon salt. Add remaining 1 tablespoon oil in to the large pot; heat over medium-high. Add chicken; cook, flipping once, until golden brown, about 3 minutes per side."},{"recipe_directions":"Pour blended chile mixture over meat chicken and top with bay leaf. Cover and cook over medium-low until chicken is cooked through, about 25 minutes."},{"recipe_directions":"Meanwhile, chop remaining onion quarter. Set aside."},{"recipe_directions":"Uncover pot, discard bay leaf, and remove chicken from chile mixture and shred. Divide shredded chicken evenly among 6 bowls, and ladle in the soup over chicken in bowls. Top with reserved chopped onion, tortilla strips, if desired, cilantro and serve with lime wedges."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Soups and Stews"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n10g \nFat\n\n\n19g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699641497-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KFOIetcBKpPP5uwwwcjUDicq9DU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(750x0:752x2):format(webp)/7153437AguaFrescadePithayaYoly-70737f9ecd524c07a4d0462d0b50ed53.jpg"
@@ -3925,59 +4038,55 @@
 Agua Fresca de Pithaya (Dragon Fruit)</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/agua-fresca-de-pithaya-dragon-fruit-7153437</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Agua Fresca de Pithaya (Dragon Fruit)</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 agua frescas"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 lb pink- or white-flesh pithayas\n\n\n1 1/2 cups water\n\n\n1/4 cup lime juice\n\n\n2 tablespoons sugar\n\n\nlime wheels, for garnish\n\n\nice cubes as needed"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 lb pink- or white-flesh pithayas\n\n\n1 1/2 cups water\n\n\n1/4 cup lime juice\n\n\n2 tablespoons sugar\n\n\nlime wheels, for garnish\n\n\nice cubes as needed'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut pithayas in half and scoop out flesh. Blend pithaya flesh, the water, lime juice, and sugar in a blender until smooth. Pour over ice and garnish glasses with lime wheels."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"331\nCalories\n\n\n2g \nFat\n\n\n81g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699641502-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_EotvrkwSB5fGNgIL6Eh5IfqvSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/4585345-046cc230d25545fa935fceb96b537d17.jpg"
@@ -3990,59 +4099,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257061/pozole-rojo-mexican-pork-and-hominy-stew/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Pozole Rojo (Mexican Pork and Hominy Stew)</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr 25 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound boneless pork shoulder, cubed\n\n\n1 pound boneless pork loin, cubed\n\n\n½ pound pork neck bones\n\n\n  water to cover\n\n\n1 head garlic, cloves peeled\n\n\n  salt to taste\n\n\n1 large plum tomato\n\n\n4 ounces dried guajillo chiles, stemmed and seeded\n\n\n1 clove garlic\n\n\n¼ teaspoon dried oregano\n\n\n1 pinch ground cumin\n\n\n2 cups water\n\n\n2 (16 ounce) cans white hominy, drained"},{"recipe_ingredients":"shredded lettuce or cabbage\n\n\n1 small onion, diced\n\n\n4  limes, quartered"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound boneless pork shoulder, cubed\n\n\n1 pound boneless pork loin, cubed\n\n\n½ pound pork neck bones\n\n\n  water to cover\n\n\n1 head garlic, cloves peeled\n\n\n  salt to taste\n\n\n1 large plum tomato\n\n\n4 ounces dried guajillo chiles, stemmed and seeded\n\n\n1 clove garlic\n\n\n¼ teaspoon dried oregano\n\n\n1 pinch ground cumin\n\n\n2 cups water\n\n\n2 (16 ounce) cans white hominy, drained'}, {'recipe_ingredients': 'shredded lettuce or cabbage\n\n\n1 small onion, diced\n\n\n4  limes, quartered'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This Mexican pozole recipe features a rich broth, tender pork, a subtly spicy red sauce, and tons of flavor."},{"recipe_directions":"Pozole is a traditional Mexican stew made with meat (usually pork, but sometimes chicken), hominy, chile peppers, and various seasonings. It’s traditionally topped with lettuce, cabbage, limes, onions, avocados, and/or radishes."},{"recipe_directions":"Pozole verde is made with a green sauce, while pozole rojo, such as this one, is made with a red sauce."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make this classic pozole recipe at home:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make this flavorful pozole recipe:"},{"recipe_directions":"Store the pozole in an airtight container in the refrigerator for up to five days. Store the toppings separately."},{"recipe_directions":"You can freeze the stew pozole for up to three months, but avoid freezing the toppings — those are best fresh. Thaw the pozole in the refrigerator overnight."},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Place pork shoulder, pork loin, and pork neck bones in a large pot; cover with water. Add 1 head of garlic and salt to taste. Bring to a boil, reduce heat and simmer until meat is tender and cooked through, about 1 hour. Stir in hominy; bring to a boil and simmer for 20 minutes."},{"recipe_directions":"Meanwhile, place tomato and guajillo chiles in a pot and add enough water to cover; bring to a boil. Cook until chiles have softened, about 15 minutes; drain."},{"recipe_directions":"Place tomato and chiles with salt, 1 clove garlic, oregano, and cumin in a blender; add 2 cups water. Blend until smooth. Strain mixture through a fine-mesh sieve and set chile sauce aside."},{"recipe_directions":"Transfer pork to a work surface and shred with 2 forks. Discard pork bones and garlic."},{"recipe_directions":"Stir chile sauce and shredded pork into the pot. Simmer pozole until flavors have blended, about 5 minutes."},{"recipe_directions":"Ladle pozole into serving bowls and top with shredded cabbage and onion; serve lime wedge on the side."},{"recipe_directions":"This dish requires different cuts of pork: shoulder, loin, and leg. It's important to have both lean and fatty cuts."},{"recipe_directions":"The cooking time for the hominy has been changed based on review feedback. The original recipe called for the hominy to simmer for 2 hours."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Soups and Stews"},{"recipe_tags":"Pork"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"408\nCalories\n\n\n17g \nFat\n\n\n35g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699641506-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1470/world-cuisine/latin-american/mexican/authentic/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lJeYTlf7V8gSCIVcIKQsnDBENY8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1095x0:1097x2):format(webp)/9096016-1b6e5748c3c9498bab5e1e6c5043e122.jpg"
@@ -4055,42 +4160,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236937/mexican-capirotada/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Capirotada</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n24 \n\n\nYield:\n1 9x13-inch baking dish"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n2 ¼ cups packed light brown sugar, divided\n\n\n2 cinnamon sticks\n\n\n2 loaves bolillo bread, sliced ½-inch thick, toasted (about 24 ounces)\n\n\n½ cup butter, softened\n\n\n3 cups shredded Oaxaca cheese (about 12 ounces)\n\n\n2 cups peanuts\n\n\n1 cup raisins\n\n\n¼ teaspoon ground cinnamon, or to taste\n\n\n¼ teaspoon ground nutmeg, or to taste\n\n\n⅛ teaspoon ground cloves, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n2 ¼ cups packed light brown sugar, divided\n\n\n2 cinnamon sticks\n\n\n2 loaves bolillo bread, sliced ½-inch thick, toasted (about 24 ounces)\n\n\n½ cup butter, softened\n\n\n3 cups shredded Oaxaca cheese (about 12 ounces)\n\n\n2 cups peanuts\n\n\n1 cup raisins\n\n\n¼ teaspoon ground cinnamon, or to taste\n\n\n¼ teaspoon ground nutmeg, or to taste\n\n\n⅛ teaspoon ground cloves, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This capirotada recipe features buttered bread layered with cozy spices, brown sugar, raisins, peanuts, and Oaxaca cheese."},{"recipe_directions":"Capirotada is Mexican bread pudding. It’s traditionally served during the Lenten period and served on Good Friday. The basic recipe dates back to the 15th-century."},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make homemade capirotada:"},{"recipe_directions":"Store the capirotada covered with foil or in an airtight container in the refrigerator for up to four days. Reheat in the oven until the dessert is warmed through."},{"recipe_directions":"Yes, you can freeze capirotada pudding for up to three months. Bake it in a foil pan if you plan to freeze it. Allow it to cool, then wrap the whole thing tightly in a layer of storage wrap and at least one layer of foil. Thaw in the refrigerator overnight."},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine water, 2 cups brown sugar, and cinnamon sticks together in a saucepan; bring to a boil. Reduce heat and simmer, stirring occasionally, until sugar is dissolved and liquid has reduced into a syrup, about 15 minutes. Remove cinnamon sticks from syrup using a slotted spoon."},{"recipe_directions":"Spread a thin layer of butter onto one side of each toasted bread slice. Shingle bread, butter-side up, to make two rows in a 9x13-inch baking dish. Sprinkle cheese, raisins, peanuts, cinnamon, nutmeg, and cloves over bread. Sprinkle remaining remaining 1/4 cup brown sugar over the cheese. Pour cinnamon syrup over entire dish; cover with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until cooked through, about 30 minutes. Cool for 15 to 20 minutes before serving."},{"recipe_directions":"This recipe was tested in our test kitchen in June 2023 and was updated to use bolillo bread and Oaxaca cheese."},{"recipe_directions":"Look for bolillo bread at your local Mexican market. If you cannot find it, you can substitute 24 ounces French bread or Italian bread, sliced ½-inch thick."},{"recipe_directions":"Oaxaca cheese is a semi-hard Mexican-style cheese that is similar to mozzarella cheese in texture. It is made from cow’s milk and has a rich- buttery flavor that is slightly salty. If you can’t find it, you could use shredded Mexican cheese blend, or Monterey Jack cheese."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n11g \nFat\n\n\n38g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>